--- a/tests/Feature/config/child_tenpercent.xlsx
+++ b/tests/Feature/config/child_tenpercent.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="1" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="2" autoFilterDateGrouping="true" firstSheet="0" minimized="false" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="private" sheetId="1" r:id="rId4"/>
-    <sheet name="John Doe Junior" sheetId="2" r:id="rId5"/>
+    <sheet name="child1" sheetId="2" r:id="rId5"/>
+    <sheet name="Statistics" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
   <si>
     <t>private</t>
   </si>
@@ -135,7 +136,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>John Doe Junior</t>
+    <t>child1</t>
   </si>
   <si>
     <t>child</t>
@@ -144,79 +145,124 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve"> Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">BarnetrygdNormal: 21192Normal: 36000 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
+Using current value: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 23311Using previous value: 39600 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 39600 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 25642Using previous value: 43560 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 43560 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 28207Using previous value: 47916 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 47916 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 31027Using previous value: 52708 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 52708 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 34130Using previous value: 57978 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 57978 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">BarnetrygdNormal: 15720Using previous value: 63776 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
+Using previous value: 63776 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 17292Using previous value: 70154 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 70154 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 19021Using previous value: 77169 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 77169 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 20923Using previous value: 84886 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 84886 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 23016Using previous value: 93375 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 93375 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 25317Using previous value: 102712 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 102712 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 27849Using previous value: 112983 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 112983 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 30634Using previous value: 124282 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 124282 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 33697Using previous value: 136710 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 136710 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 37067Using previous value: 150381 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 150381 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 40774Using previous value: 165419 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 165419 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 44851Using previous value: 181961 Asset rule </t>
+    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
+Using previous value: 181961 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">BarnetrygdNormal: 15720Using previous value: 200157 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 200157 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 220173 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 220173 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 242190 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 242190 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 266409 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Using previous value: 266409 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
   <si>
-    <t xml:space="preserve">Using previous value: 293050 Asset rule </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slutt på sponsing av barnUsing previous value: 322355 Asset rule </t>
+    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
+Slutt på sponsing av barnUsing previous value: 293050 Asset rule  no transferResource &amp;&amp; transferRule
+</t>
   </si>
 </sst>
 </file>
@@ -795,11 +841,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1">
@@ -824,11 +870,11 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -838,17 +884,17 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA6">
         <v>0.0</v>
@@ -867,11 +913,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1">
@@ -896,11 +942,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -910,17 +956,17 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA7">
         <v>0.0</v>
@@ -939,11 +985,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1">
@@ -968,11 +1014,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -982,17 +1028,17 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA8">
         <v>0.0</v>
@@ -1011,11 +1057,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1">
@@ -1040,11 +1086,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -1054,17 +1100,17 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA9">
         <v>0.0</v>
@@ -1083,11 +1129,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1">
@@ -1112,11 +1158,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -1126,17 +1172,17 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0.0</v>
@@ -1155,11 +1201,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1">
@@ -1184,11 +1230,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -1198,17 +1244,17 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0.0</v>
@@ -1227,11 +1273,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1">
@@ -1256,11 +1302,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -1270,17 +1316,17 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA12">
         <v>0.0</v>
@@ -1299,11 +1345,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1">
@@ -1328,11 +1374,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -1342,17 +1388,17 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA13">
         <v>0.0</v>
@@ -1371,11 +1417,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1">
@@ -1400,11 +1446,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -1414,17 +1460,17 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA14">
         <v>0.0</v>
@@ -1443,11 +1489,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1">
@@ -1472,11 +1518,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -1486,17 +1532,17 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA15">
         <v>0.0</v>
@@ -1515,11 +1561,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1">
@@ -1544,11 +1590,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -1558,17 +1604,17 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA16">
         <v>0.0</v>
@@ -1587,11 +1633,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1">
@@ -1616,11 +1662,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -1630,17 +1676,17 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA17">
         <v>0.0</v>
@@ -1659,11 +1705,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1">
@@ -1688,11 +1734,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -1702,17 +1748,17 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA18">
         <v>0.0</v>
@@ -1731,11 +1777,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1">
@@ -1760,11 +1806,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -1774,17 +1820,17 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA19">
         <v>0.0</v>
@@ -1803,11 +1849,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1">
@@ -1832,11 +1878,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -1846,17 +1892,17 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA20">
         <v>0.0</v>
@@ -1875,11 +1921,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1">
@@ -1904,11 +1950,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -1918,17 +1964,17 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA21">
         <v>0.0</v>
@@ -1947,11 +1993,11 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="1">
@@ -1976,11 +2022,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -1990,17 +2036,17 @@
         <v>-25404.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="AA22">
         <v>0.0</v>
@@ -2021,11 +2067,11 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>23311.2</v>
+        <v>23311</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="5">
-        <v>39600.0</v>
+        <v>39600</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="1">
@@ -2043,47 +2089,47 @@
       </c>
       <c r="L23" s="2"/>
       <c r="M23" s="1">
-        <v>-11655.6</v>
+        <v>-11655.5</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="1">
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>-27944.4</v>
+        <v>-27944.5</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>23311.2</v>
+        <v>23311</v>
       </c>
       <c r="Y23" s="1">
-        <v>116556.0</v>
+        <v>116555</v>
       </c>
       <c r="Z23" s="1">
-        <v>116556.0</v>
+        <v>116555</v>
       </c>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>-27944.0</v>
+        <v>-27945.0</v>
       </c>
       <c r="AC23" s="2">
-        <v>-1.1987370877518</v>
+        <v>-1.1987902706877</v>
       </c>
       <c r="AD23"/>
     </row>
@@ -2095,11 +2141,11 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>25642.32</v>
+        <v>25642</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="5">
-        <v>43560.0</v>
+        <v>43560</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="1">
@@ -2117,38 +2163,38 @@
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="1">
-        <v>-12821.16</v>
+        <v>-12821.0</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="1">
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>-30738.84</v>
+        <v>-30739.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>25642.32</v>
+        <v>25642</v>
       </c>
       <c r="Y24" s="1">
-        <v>128211.6</v>
+        <v>128210</v>
       </c>
       <c r="Z24" s="1">
-        <v>128211.6</v>
+        <v>128210</v>
       </c>
       <c r="AA24">
         <v>0.0</v>
@@ -2157,7 +2203,7 @@
         <v>-30739.0</v>
       </c>
       <c r="AC24" s="2">
-        <v>-1.1987604865706</v>
+        <v>-1.198775446533</v>
       </c>
       <c r="AD24"/>
     </row>
@@ -2169,11 +2215,11 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>28206.552</v>
+        <v>28206</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="5">
-        <v>47916.0</v>
+        <v>47916</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="1">
@@ -2191,38 +2237,38 @@
       </c>
       <c r="L25" s="2"/>
       <c r="M25" s="1">
-        <v>-14103.276</v>
+        <v>-14103.0</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="1">
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>-33812.724</v>
+        <v>-33813.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>28206.552</v>
+        <v>28206</v>
       </c>
       <c r="Y25" s="1">
-        <v>141032.76</v>
+        <v>141030</v>
       </c>
       <c r="Z25" s="1">
-        <v>141032.76</v>
+        <v>141030</v>
       </c>
       <c r="AA25">
         <v>0.0</v>
@@ -2231,7 +2277,7 @@
         <v>-33813.0</v>
       </c>
       <c r="AC25" s="2">
-        <v>-1.1987640318462</v>
+        <v>-1.198787492023</v>
       </c>
       <c r="AD25"/>
     </row>
@@ -2243,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>31027.2072</v>
+        <v>31026</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="5">
@@ -2265,47 +2311,47 @@
       </c>
       <c r="L26" s="2"/>
       <c r="M26" s="1">
-        <v>-15513.6036</v>
+        <v>-15513.0</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="1">
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>-37193.9964</v>
+        <v>-37194.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>31027.2072</v>
+        <v>31026</v>
       </c>
       <c r="Y26" s="1">
-        <v>155136.036</v>
+        <v>155130</v>
       </c>
       <c r="Z26" s="1">
-        <v>155136.036</v>
+        <v>155130</v>
       </c>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>-37194.0</v>
+        <v>-37195.0</v>
       </c>
       <c r="AC26" s="2">
-        <v>-1.1987543629128</v>
+        <v>-1.1988332366402</v>
       </c>
       <c r="AD26"/>
     </row>
@@ -2317,7 +2363,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>34129.92792</v>
+        <v>34128</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="5">
@@ -2339,47 +2385,47 @@
       </c>
       <c r="L27" s="2"/>
       <c r="M27" s="1">
-        <v>-17064.96396</v>
+        <v>-17064.0</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="1">
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>-40913.39604</v>
+        <v>-40914.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>34129.92792</v>
+        <v>34128</v>
       </c>
       <c r="Y27" s="1">
-        <v>170649.6396</v>
+        <v>170640</v>
       </c>
       <c r="Z27" s="1">
-        <v>170649.6396</v>
+        <v>170640</v>
       </c>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>-40913.0</v>
+        <v>-40914.0</v>
       </c>
       <c r="AC27" s="2">
-        <v>-1.1987426429935</v>
+        <v>-1.1988396624473</v>
       </c>
       <c r="AD27"/>
     </row>
@@ -2391,7 +2437,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="5">
@@ -2420,31 +2466,31 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>-55916.196</v>
+        <v>-55916.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="AA28">
         <v>0.0</v>
@@ -2465,7 +2511,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>17292.0</v>
+        <v>17292</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="5">
@@ -2494,31 +2540,31 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>-61507.8156</v>
+        <v>-61507.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>17292.0</v>
+        <v>17292</v>
       </c>
       <c r="Y29" s="1">
-        <v>86460.0</v>
+        <v>86460</v>
       </c>
       <c r="Z29" s="1">
-        <v>86460.0</v>
+        <v>86460</v>
       </c>
       <c r="AA29">
         <v>0.0</v>
@@ -2539,7 +2585,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>19021.2</v>
+        <v>19021</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="5">
@@ -2561,38 +2607,38 @@
       </c>
       <c r="L30" s="2"/>
       <c r="M30" s="1">
-        <v>-9510.6</v>
+        <v>-9510.5</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="1">
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>-67658.59716</v>
+        <v>-67658.5</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>19021.2</v>
+        <v>19021</v>
       </c>
       <c r="Y30" s="1">
-        <v>95106.0</v>
+        <v>95105</v>
       </c>
       <c r="Z30" s="1">
-        <v>95106.0</v>
+        <v>95105</v>
       </c>
       <c r="AA30">
         <v>0.0</v>
@@ -2601,7 +2647,7 @@
         <v>-67659.0</v>
       </c>
       <c r="AC30" s="2">
-        <v>-3.5570311021387</v>
+        <v>-3.5570685032333</v>
       </c>
       <c r="AD30"/>
     </row>
@@ -2613,7 +2659,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>20923.32</v>
+        <v>20923</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="5">
@@ -2635,47 +2681,47 @@
       </c>
       <c r="L31" s="2"/>
       <c r="M31" s="1">
-        <v>-10461.66</v>
+        <v>-10461.5</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="1">
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>-74424.456876</v>
+        <v>-74424.5</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>20923.32</v>
+        <v>20923</v>
       </c>
       <c r="Y31" s="1">
-        <v>104616.6</v>
+        <v>104615</v>
       </c>
       <c r="Z31" s="1">
-        <v>104616.6</v>
+        <v>104615</v>
       </c>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>-74424.0</v>
+        <v>-74425.0</v>
       </c>
       <c r="AC31" s="2">
-        <v>-3.5569880879325</v>
+        <v>-3.5570902834202</v>
       </c>
       <c r="AD31"/>
     </row>
@@ -2687,7 +2733,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>23015.652</v>
+        <v>23015</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="5">
@@ -2709,38 +2755,38 @@
       </c>
       <c r="L32" s="2"/>
       <c r="M32" s="1">
-        <v>-11507.826</v>
+        <v>-11507.5</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="1">
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>-81866.9025636</v>
+        <v>-81866.5</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>23015.652</v>
+        <v>23015</v>
       </c>
       <c r="Y32" s="1">
-        <v>115078.26</v>
+        <v>115075</v>
       </c>
       <c r="Z32" s="1">
-        <v>115078.26</v>
+        <v>115075</v>
       </c>
       <c r="AA32">
         <v>0.0</v>
@@ -2749,7 +2795,7 @@
         <v>-81867.0</v>
       </c>
       <c r="AC32" s="2">
-        <v>-3.5570141571484</v>
+        <v>-3.5571149250489</v>
       </c>
       <c r="AD32"/>
     </row>
@@ -2761,7 +2807,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>25317.2172</v>
+        <v>25316</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="5">
@@ -2783,38 +2829,38 @@
       </c>
       <c r="L33" s="2"/>
       <c r="M33" s="1">
-        <v>-12658.6086</v>
+        <v>-12658.0</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="1">
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>-90053.59281996</v>
+        <v>-90054.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>25317.2172</v>
+        <v>25316</v>
       </c>
       <c r="Y33" s="1">
-        <v>126586.086</v>
+        <v>126580</v>
       </c>
       <c r="Z33" s="1">
-        <v>126586.086</v>
+        <v>126580</v>
       </c>
       <c r="AA33">
         <v>0.0</v>
@@ -2823,7 +2869,7 @@
         <v>-90054.0</v>
       </c>
       <c r="AC33" s="2">
-        <v>-3.5570260067919</v>
+        <v>-3.5571970295465</v>
       </c>
       <c r="AD33"/>
     </row>
@@ -2835,7 +2881,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>27848.93892</v>
+        <v>27847</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="5">
@@ -2857,47 +2903,47 @@
       </c>
       <c r="L34" s="2"/>
       <c r="M34" s="1">
-        <v>-13924.46946</v>
+        <v>-13923.5</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="1">
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-99058.952101956</v>
+        <v>-99059.5</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>27848.93892</v>
+        <v>27847</v>
       </c>
       <c r="Y34" s="1">
-        <v>139244.6946</v>
+        <v>139235</v>
       </c>
       <c r="Z34" s="1">
-        <v>139244.6946</v>
+        <v>139235</v>
       </c>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>-99059.0</v>
+        <v>-99060.0</v>
       </c>
       <c r="AC34" s="2">
-        <v>-3.5570116435876</v>
+        <v>-3.557295220311</v>
       </c>
       <c r="AD34"/>
     </row>
@@ -2909,11 +2955,11 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>30633.832812</v>
+        <v>30631</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="5">
-        <v>124281.76371815</v>
+        <v>124281.76371816</v>
       </c>
       <c r="F35" s="2"/>
       <c r="G35" s="1">
@@ -2931,47 +2977,47 @@
       </c>
       <c r="L35" s="2"/>
       <c r="M35" s="1">
-        <v>-15316.916406</v>
+        <v>-15315.5</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="1">
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-108964.84731215</v>
+        <v>-108965.5</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>30633.832812</v>
+        <v>30631</v>
       </c>
       <c r="Y35" s="1">
-        <v>153169.16406</v>
+        <v>153155</v>
       </c>
       <c r="Z35" s="1">
-        <v>153169.16406</v>
+        <v>153155</v>
       </c>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>-108965.0</v>
+        <v>-108966.0</v>
       </c>
       <c r="AC35" s="2">
-        <v>-3.5570149079522</v>
+        <v>-3.5573765139891</v>
       </c>
       <c r="AD35"/>
     </row>
@@ -2983,11 +3029,11 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>33697.2160932</v>
+        <v>33694</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="5">
-        <v>136709.94008997</v>
+        <v>136709.94008998</v>
       </c>
       <c r="F36" s="2"/>
       <c r="G36" s="1">
@@ -3005,47 +3051,47 @@
       </c>
       <c r="L36" s="2"/>
       <c r="M36" s="1">
-        <v>-16848.6080466</v>
+        <v>-16847.0</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="1">
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-119861.33204337</v>
+        <v>-119862.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>33697.2160932</v>
+        <v>33694</v>
       </c>
       <c r="Y36" s="1">
-        <v>168486.080466</v>
+        <v>168470</v>
       </c>
       <c r="Z36" s="1">
-        <v>168486.080466</v>
+        <v>168470</v>
       </c>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>-119861.0</v>
+        <v>-119863.0</v>
       </c>
       <c r="AC36" s="2">
-        <v>-3.5570000699312</v>
+        <v>-3.5573989434321</v>
       </c>
       <c r="AD36"/>
     </row>
@@ -3057,11 +3103,11 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>37066.93770252</v>
+        <v>37063</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="5">
-        <v>150380.93409896</v>
+        <v>150380.93409898</v>
       </c>
       <c r="F37" s="2"/>
       <c r="G37" s="1">
@@ -3079,47 +3125,47 @@
       </c>
       <c r="L37" s="2"/>
       <c r="M37" s="1">
-        <v>-18533.46885126</v>
+        <v>-18531.5</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="1">
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-131847.4652477</v>
+        <v>-131848.5</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>37066.93770252</v>
+        <v>37063</v>
       </c>
       <c r="Y37" s="1">
-        <v>185334.6885126</v>
+        <v>185315</v>
       </c>
       <c r="Z37" s="1">
-        <v>185334.6885126</v>
+        <v>185315</v>
       </c>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>-131847.0</v>
+        <v>-131849.0</v>
       </c>
       <c r="AC37" s="2">
-        <v>-3.5569973721092</v>
+        <v>-3.5574292421013</v>
       </c>
       <c r="AD37"/>
     </row>
@@ -3131,11 +3177,11 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>40773.631472772</v>
+        <v>40769</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="8">
-        <v>165419.02750886</v>
+        <v>165419.02750888</v>
       </c>
       <c r="F38" s="9"/>
       <c r="G38" s="8">
@@ -3153,47 +3199,47 @@
       </c>
       <c r="L38" s="9"/>
       <c r="M38" s="8">
-        <v>-20386.815736386</v>
+        <v>-20384.5</v>
       </c>
       <c r="N38" s="9"/>
       <c r="O38" s="8">
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="8">
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-145032.21177247</v>
+        <v>-145034.5</v>
       </c>
       <c r="V38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>40773.631472772</v>
+        <v>40769</v>
       </c>
       <c r="Y38" s="8">
-        <v>203868.15736386</v>
+        <v>203845</v>
       </c>
       <c r="Z38" s="8">
-        <v>203868.15736386</v>
+        <v>203845</v>
       </c>
       <c r="AA38" s="7">
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>-145032.0</v>
+        <v>-145035.0</v>
       </c>
       <c r="AC38" s="9">
-        <v>-3.5570047298056</v>
+        <v>-3.5574824008438</v>
       </c>
       <c r="AD38" s="7"/>
     </row>
@@ -3205,11 +3251,11 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>44850.994620049</v>
+        <v>15720</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="5">
-        <v>181960.93025975</v>
+        <v>181960.93025977</v>
       </c>
       <c r="F39" s="2"/>
       <c r="G39" s="1">
@@ -3227,47 +3273,47 @@
       </c>
       <c r="L39" s="2"/>
       <c r="M39" s="1">
-        <v>-22425.497310025</v>
+        <v>-7860.0</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="1">
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="1">
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-159535.43294972</v>
+        <v>-174100.0</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>44850.994620049</v>
+        <v>15720</v>
       </c>
       <c r="Y39" s="1">
-        <v>224254.97310025</v>
+        <v>78600</v>
       </c>
       <c r="Z39" s="1">
-        <v>224254.97310025</v>
+        <v>78600</v>
       </c>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>-159535.0</v>
+        <v>-174101.0</v>
       </c>
       <c r="AC39" s="2">
-        <v>-3.5570002705957</v>
+        <v>-11.075127226463</v>
       </c>
       <c r="AD39"/>
     </row>
@@ -3279,11 +3325,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>200157.02328572</v>
+        <v>200157.02328575</v>
       </c>
       <c r="F40" s="12"/>
       <c r="G40" s="11">
@@ -3301,48 +3347,46 @@
       </c>
       <c r="L40" s="12"/>
       <c r="M40" s="11">
-        <v>-7860.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="12"/>
       <c r="O40" s="11">
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-192297.02328572</v>
+        <v>-200157.0</v>
       </c>
       <c r="V40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-192297.0</v>
-      </c>
-      <c r="AC40" s="12">
-        <v>-12.232633587786</v>
-      </c>
+        <v>-200157.0</v>
+      </c>
+      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
     </row>
     <row r="41" spans="1:31">
@@ -3353,11 +3397,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>220172.72561429</v>
+        <v>220172.72561433</v>
       </c>
       <c r="F41" s="2"/>
       <c r="G41" s="1">
@@ -3382,31 +3426,31 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-220172.72561429</v>
+        <v>-220172.0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA41">
         <v>0.0</v>
@@ -3425,11 +3469,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>242189.99817572</v>
+        <v>242189.99817576</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="1">
@@ -3454,31 +3498,31 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-242189.99817572</v>
+        <v>-242189.0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0.0</v>
@@ -3497,11 +3541,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>266408.99799329</v>
+        <v>266408.99799334</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="1">
@@ -3526,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-266408.99799329</v>
+        <v>-266408.0</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0.0</v>
@@ -3569,11 +3613,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>293049.89779262</v>
+        <v>293049.89779267</v>
       </c>
       <c r="F44" s="2"/>
       <c r="G44" s="1">
@@ -3598,31 +3642,31 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-293049.89779262</v>
+        <v>-293049.0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA44">
         <v>0.0</v>
@@ -3641,11 +3685,11 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>322354.88757189</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2"/>
       <c r="G45" s="1">
@@ -3670,37 +3714,37 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-322354.88757189</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-322355.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45"/>
@@ -3713,11 +3757,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1">
@@ -3742,11 +3786,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
@@ -3756,17 +3800,17 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA46">
         <v>0.0</v>
@@ -3785,11 +3829,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1">
@@ -3814,11 +3858,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
@@ -3828,17 +3872,17 @@
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA47">
         <v>0.0</v>
@@ -3857,11 +3901,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1">
@@ -3886,11 +3930,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
@@ -3900,17 +3944,17 @@
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA48">
         <v>0.0</v>
@@ -3929,11 +3973,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1">
@@ -3958,11 +4002,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
@@ -3972,17 +4016,17 @@
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA49">
         <v>0.0</v>
@@ -4001,11 +4045,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1">
@@ -4030,11 +4074,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
@@ -4044,17 +4088,17 @@
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0.0</v>
@@ -4073,11 +4117,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1">
@@ -4102,11 +4146,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
@@ -4116,17 +4160,17 @@
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA51">
         <v>0.0</v>
@@ -4145,11 +4189,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1">
@@ -4174,11 +4218,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
@@ -4188,17 +4232,17 @@
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA52">
         <v>0.0</v>
@@ -4217,11 +4261,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13">
@@ -4246,11 +4290,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -4260,17 +4304,17 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA53" s="3">
         <v>0.0</v>
@@ -4289,11 +4333,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1">
@@ -4318,11 +4362,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -4332,17 +4376,17 @@
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA54">
         <v>0.0</v>
@@ -4361,11 +4405,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1">
@@ -4390,11 +4434,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -4404,17 +4448,17 @@
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0.0</v>
@@ -4433,11 +4477,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1">
@@ -4462,11 +4506,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -4476,17 +4520,17 @@
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA56">
         <v>0.0</v>
@@ -4505,11 +4549,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13">
@@ -4534,11 +4578,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -4548,17 +4592,17 @@
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA57" s="3">
         <v>0.0</v>
@@ -4577,11 +4621,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1">
@@ -4606,11 +4650,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -4620,17 +4664,17 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA58">
         <v>0.0</v>
@@ -4649,11 +4693,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1">
@@ -4678,11 +4722,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -4692,17 +4736,17 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA59">
         <v>0.0</v>
@@ -4721,11 +4765,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1">
@@ -4750,11 +4794,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -4764,17 +4808,17 @@
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA60">
         <v>0.0</v>
@@ -4793,11 +4837,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1">
@@ -4822,11 +4866,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -4836,17 +4880,17 @@
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA61">
         <v>0.0</v>
@@ -4865,11 +4909,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1">
@@ -4894,11 +4938,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -4908,17 +4952,17 @@
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA62">
         <v>0.0</v>
@@ -4937,11 +4981,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1">
@@ -4966,11 +5010,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -4980,17 +5024,17 @@
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA63">
         <v>0.0</v>
@@ -5009,11 +5053,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1">
@@ -5038,11 +5082,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -5052,17 +5096,17 @@
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA64">
         <v>0.0</v>
@@ -5081,11 +5125,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1">
@@ -5110,11 +5154,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -5124,17 +5168,17 @@
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA65">
         <v>0.0</v>
@@ -5153,11 +5197,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1">
@@ -5182,11 +5226,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -5196,17 +5240,17 @@
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA66">
         <v>0.0</v>
@@ -5225,11 +5269,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1">
@@ -5254,11 +5298,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -5268,17 +5312,17 @@
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA67">
         <v>0.0</v>
@@ -5297,11 +5341,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1">
@@ -5326,11 +5370,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -5340,17 +5384,17 @@
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA68">
         <v>0.0</v>
@@ -5369,11 +5413,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
@@ -5398,11 +5442,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -5412,17 +5456,17 @@
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA69">
         <v>0.0</v>
@@ -5441,11 +5485,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
@@ -5470,11 +5514,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -5484,17 +5528,17 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA70">
         <v>0.0</v>
@@ -5513,11 +5557,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
@@ -5542,11 +5586,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -5556,17 +5600,17 @@
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA71">
         <v>0.0</v>
@@ -5585,11 +5629,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5">
@@ -5614,11 +5658,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -5628,17 +5672,17 @@
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AA72" s="15">
         <v>0.0</v>
@@ -5902,8 +5946,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="4" max="4" width="9.283" bestFit="true" customWidth="true" style="0"/>
     <col min="5" max="5" width="9.283" bestFit="true" customWidth="true" style="0"/>
@@ -6082,11 +6126,11 @@
         <v>16</v>
       </c>
       <c r="C6" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
@@ -6107,11 +6151,11 @@
         <v>0</v>
       </c>
       <c r="P6" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="1">
@@ -6121,14 +6165,14 @@
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2"/>
       <c r="X6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1"/>
       <c r="AA6">
@@ -6150,11 +6194,11 @@
         <v>17</v>
       </c>
       <c r="C7" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="1"/>
@@ -6175,11 +6219,11 @@
         <v>0</v>
       </c>
       <c r="P7" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="1">
@@ -6189,14 +6233,14 @@
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W7" s="2"/>
       <c r="X7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1"/>
       <c r="AA7">
@@ -6218,11 +6262,11 @@
         <v>18</v>
       </c>
       <c r="C8" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="1"/>
@@ -6243,11 +6287,11 @@
         <v>0</v>
       </c>
       <c r="P8" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="1">
@@ -6257,14 +6301,14 @@
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2"/>
       <c r="X8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1"/>
       <c r="AA8">
@@ -6286,11 +6330,11 @@
         <v>19</v>
       </c>
       <c r="C9" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="1"/>
@@ -6311,11 +6355,11 @@
         <v>0</v>
       </c>
       <c r="P9" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="1">
@@ -6325,14 +6369,14 @@
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W9" s="2"/>
       <c r="X9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1"/>
       <c r="AA9">
@@ -6354,11 +6398,11 @@
         <v>20</v>
       </c>
       <c r="C10" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="1"/>
@@ -6379,11 +6423,11 @@
         <v>0</v>
       </c>
       <c r="P10" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="1">
@@ -6393,14 +6437,14 @@
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2"/>
       <c r="X10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1"/>
       <c r="AA10">
@@ -6422,11 +6466,11 @@
         <v>21</v>
       </c>
       <c r="C11" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="1"/>
@@ -6447,11 +6491,11 @@
         <v>0</v>
       </c>
       <c r="P11" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="1">
@@ -6461,14 +6505,14 @@
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2"/>
       <c r="X11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1"/>
       <c r="AA11">
@@ -6490,11 +6534,11 @@
         <v>22</v>
       </c>
       <c r="C12" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="1"/>
@@ -6515,11 +6559,11 @@
         <v>0</v>
       </c>
       <c r="P12" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="1">
@@ -6529,14 +6573,14 @@
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2"/>
       <c r="X12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1"/>
       <c r="AA12">
@@ -6558,11 +6602,11 @@
         <v>23</v>
       </c>
       <c r="C13" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="1"/>
@@ -6583,11 +6627,11 @@
         <v>0</v>
       </c>
       <c r="P13" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="1">
@@ -6597,14 +6641,14 @@
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W13" s="2"/>
       <c r="X13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1"/>
       <c r="AA13">
@@ -6626,11 +6670,11 @@
         <v>24</v>
       </c>
       <c r="C14" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="1"/>
@@ -6651,11 +6695,11 @@
         <v>0</v>
       </c>
       <c r="P14" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14" s="1">
@@ -6665,14 +6709,14 @@
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2"/>
       <c r="X14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1"/>
       <c r="AA14">
@@ -6694,11 +6738,11 @@
         <v>25</v>
       </c>
       <c r="C15" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="1"/>
@@ -6719,11 +6763,11 @@
         <v>0</v>
       </c>
       <c r="P15" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="1">
@@ -6733,14 +6777,14 @@
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2"/>
       <c r="X15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1"/>
       <c r="AA15">
@@ -6762,11 +6806,11 @@
         <v>26</v>
       </c>
       <c r="C16" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="1"/>
@@ -6787,11 +6831,11 @@
         <v>0</v>
       </c>
       <c r="P16" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="1">
@@ -6801,14 +6845,14 @@
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2"/>
       <c r="X16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1"/>
       <c r="AA16">
@@ -6830,11 +6874,11 @@
         <v>27</v>
       </c>
       <c r="C17" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="1"/>
@@ -6855,11 +6899,11 @@
         <v>0</v>
       </c>
       <c r="P17" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="1">
@@ -6869,14 +6913,14 @@
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W17" s="2"/>
       <c r="X17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1"/>
       <c r="AA17">
@@ -6898,11 +6942,11 @@
         <v>28</v>
       </c>
       <c r="C18" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="1"/>
@@ -6923,11 +6967,11 @@
         <v>0</v>
       </c>
       <c r="P18" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18" s="1">
@@ -6937,14 +6981,14 @@
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2"/>
       <c r="X18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1"/>
       <c r="AA18">
@@ -6966,11 +7010,11 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="1"/>
@@ -6991,11 +7035,11 @@
         <v>0</v>
       </c>
       <c r="P19" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19" s="1">
@@ -7005,14 +7049,14 @@
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2"/>
       <c r="X19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1"/>
       <c r="AA19">
@@ -7034,11 +7078,11 @@
         <v>30</v>
       </c>
       <c r="C20" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="1"/>
@@ -7059,11 +7103,11 @@
         <v>0</v>
       </c>
       <c r="P20" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="1">
@@ -7073,14 +7117,14 @@
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2"/>
       <c r="X20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1"/>
       <c r="AA20">
@@ -7102,11 +7146,11 @@
         <v>31</v>
       </c>
       <c r="C21" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F21" s="2"/>
       <c r="G21" s="1"/>
@@ -7127,11 +7171,11 @@
         <v>0</v>
       </c>
       <c r="P21" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21" s="1">
@@ -7141,14 +7185,14 @@
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W21" s="2"/>
       <c r="X21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1"/>
       <c r="AA21">
@@ -7170,13 +7214,13 @@
         <v>32</v>
       </c>
       <c r="C22" s="4">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="D22" s="2">
         <v>0.1</v>
       </c>
       <c r="E22" s="5">
-        <v>36000.0</v>
+        <v>36000</v>
       </c>
       <c r="F22" s="2">
         <v>0.1</v>
@@ -7199,11 +7243,11 @@
         <v>0</v>
       </c>
       <c r="P22" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22" s="1">
@@ -7213,14 +7257,14 @@
         <v>-25404.0</v>
       </c>
       <c r="V22" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2"/>
       <c r="X22" s="1">
-        <v>21192.0</v>
+        <v>21192</v>
       </c>
       <c r="Y22" s="1">
-        <v>105960.0</v>
+        <v>105960</v>
       </c>
       <c r="Z22" s="1"/>
       <c r="AA22">
@@ -7242,13 +7286,13 @@
         <v>33</v>
       </c>
       <c r="C23" s="4">
-        <v>23311.2</v>
+        <v>23311</v>
       </c>
       <c r="D23" s="2">
         <v>0.1</v>
       </c>
       <c r="E23" s="5">
-        <v>39600.0</v>
+        <v>39600</v>
       </c>
       <c r="F23" s="2">
         <v>0.1</v>
@@ -7262,7 +7306,7 @@
         <v>0.5</v>
       </c>
       <c r="M23" s="1">
-        <v>-11655.6</v>
+        <v>-11655.5</v>
       </c>
       <c r="N23" s="2">
         <v>0.5</v>
@@ -7271,35 +7315,35 @@
         <v>0</v>
       </c>
       <c r="P23" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23" s="1">
         <v>0.0</v>
       </c>
       <c r="U23" s="6">
-        <v>-27944.4</v>
+        <v>-27944.5</v>
       </c>
       <c r="V23" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W23" s="2"/>
       <c r="X23" s="1">
-        <v>23311.2</v>
+        <v>23311</v>
       </c>
       <c r="Y23" s="1">
-        <v>116556.0</v>
+        <v>116555</v>
       </c>
       <c r="Z23" s="1"/>
       <c r="AA23">
         <v>0.0</v>
       </c>
       <c r="AB23">
-        <v>-27944.0</v>
+        <v>-27945.0</v>
       </c>
       <c r="AC23" s="2"/>
       <c r="AD23" t="s">
@@ -7314,13 +7358,13 @@
         <v>34</v>
       </c>
       <c r="C24" s="4">
-        <v>25642.32</v>
+        <v>25642</v>
       </c>
       <c r="D24" s="2">
         <v>0.1</v>
       </c>
       <c r="E24" s="5">
-        <v>43560.0</v>
+        <v>43560</v>
       </c>
       <c r="F24" s="2">
         <v>0.1</v>
@@ -7334,7 +7378,7 @@
         <v>0.5</v>
       </c>
       <c r="M24" s="1">
-        <v>-12821.16</v>
+        <v>-12821.0</v>
       </c>
       <c r="N24" s="2">
         <v>0.5</v>
@@ -7343,28 +7387,28 @@
         <v>0</v>
       </c>
       <c r="P24" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="1">
         <v>0.0</v>
       </c>
       <c r="U24" s="6">
-        <v>-30738.84</v>
+        <v>-30739.0</v>
       </c>
       <c r="V24" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2"/>
       <c r="X24" s="1">
-        <v>25642.32</v>
+        <v>25642</v>
       </c>
       <c r="Y24" s="1">
-        <v>128211.6</v>
+        <v>128210</v>
       </c>
       <c r="Z24" s="1"/>
       <c r="AA24">
@@ -7386,13 +7430,13 @@
         <v>35</v>
       </c>
       <c r="C25" s="4">
-        <v>28206.552</v>
+        <v>28206</v>
       </c>
       <c r="D25" s="2">
         <v>0.1</v>
       </c>
       <c r="E25" s="5">
-        <v>47916.0</v>
+        <v>47916</v>
       </c>
       <c r="F25" s="2">
         <v>0.1</v>
@@ -7406,7 +7450,7 @@
         <v>0.5</v>
       </c>
       <c r="M25" s="1">
-        <v>-14103.276</v>
+        <v>-14103.0</v>
       </c>
       <c r="N25" s="2">
         <v>0.5</v>
@@ -7415,28 +7459,28 @@
         <v>0</v>
       </c>
       <c r="P25" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25" s="1">
         <v>0.0</v>
       </c>
       <c r="U25" s="6">
-        <v>-33812.724</v>
+        <v>-33813.0</v>
       </c>
       <c r="V25" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W25" s="2"/>
       <c r="X25" s="1">
-        <v>28206.552</v>
+        <v>28206</v>
       </c>
       <c r="Y25" s="1">
-        <v>141032.76</v>
+        <v>141030</v>
       </c>
       <c r="Z25" s="1"/>
       <c r="AA25">
@@ -7458,7 +7502,7 @@
         <v>36</v>
       </c>
       <c r="C26" s="4">
-        <v>31027.2072</v>
+        <v>31026</v>
       </c>
       <c r="D26" s="2">
         <v>0.1</v>
@@ -7478,7 +7522,7 @@
         <v>0.5</v>
       </c>
       <c r="M26" s="1">
-        <v>-15513.6036</v>
+        <v>-15513.0</v>
       </c>
       <c r="N26" s="2">
         <v>0.5</v>
@@ -7487,35 +7531,35 @@
         <v>0</v>
       </c>
       <c r="P26" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S26" s="2"/>
       <c r="T26" s="1">
         <v>0.0</v>
       </c>
       <c r="U26" s="6">
-        <v>-37193.9964</v>
+        <v>-37194.0</v>
       </c>
       <c r="V26" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2"/>
       <c r="X26" s="1">
-        <v>31027.2072</v>
+        <v>31026</v>
       </c>
       <c r="Y26" s="1">
-        <v>155136.036</v>
+        <v>155130</v>
       </c>
       <c r="Z26" s="1"/>
       <c r="AA26">
         <v>0.0</v>
       </c>
       <c r="AB26">
-        <v>-37194.0</v>
+        <v>-37195.0</v>
       </c>
       <c r="AC26" s="2"/>
       <c r="AD26" t="s">
@@ -7530,7 +7574,7 @@
         <v>37</v>
       </c>
       <c r="C27" s="4">
-        <v>34129.92792</v>
+        <v>34128</v>
       </c>
       <c r="D27" s="2">
         <v>0.1</v>
@@ -7550,7 +7594,7 @@
         <v>0.5</v>
       </c>
       <c r="M27" s="1">
-        <v>-17064.96396</v>
+        <v>-17064.0</v>
       </c>
       <c r="N27" s="2">
         <v>0.5</v>
@@ -7559,35 +7603,35 @@
         <v>0</v>
       </c>
       <c r="P27" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27" s="1">
         <v>0.0</v>
       </c>
       <c r="U27" s="6">
-        <v>-40913.39604</v>
+        <v>-40914.0</v>
       </c>
       <c r="V27" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W27" s="2"/>
       <c r="X27" s="1">
-        <v>34129.92792</v>
+        <v>34128</v>
       </c>
       <c r="Y27" s="1">
-        <v>170649.6396</v>
+        <v>170640</v>
       </c>
       <c r="Z27" s="1"/>
       <c r="AA27">
         <v>0.0</v>
       </c>
       <c r="AB27">
-        <v>-40913.0</v>
+        <v>-40914.0</v>
       </c>
       <c r="AC27" s="2"/>
       <c r="AD27" t="s">
@@ -7602,7 +7646,7 @@
         <v>38</v>
       </c>
       <c r="C28" s="4">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="D28" s="2">
         <v>0.1</v>
@@ -7631,28 +7675,28 @@
         <v>0</v>
       </c>
       <c r="P28" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28" s="1">
         <v>0.0</v>
       </c>
       <c r="U28" s="6">
-        <v>-55916.196</v>
+        <v>-55916.0</v>
       </c>
       <c r="V28" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2"/>
       <c r="X28" s="1">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="Y28" s="1">
-        <v>78600.0</v>
+        <v>78600</v>
       </c>
       <c r="Z28" s="1"/>
       <c r="AA28">
@@ -7674,7 +7718,7 @@
         <v>39</v>
       </c>
       <c r="C29" s="4">
-        <v>17292.0</v>
+        <v>17292</v>
       </c>
       <c r="D29" s="2">
         <v>0.1</v>
@@ -7703,28 +7747,28 @@
         <v>0</v>
       </c>
       <c r="P29" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29" s="1">
         <v>0.0</v>
       </c>
       <c r="U29" s="6">
-        <v>-61507.8156</v>
+        <v>-61507.0</v>
       </c>
       <c r="V29" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W29" s="2"/>
       <c r="X29" s="1">
-        <v>17292.0</v>
+        <v>17292</v>
       </c>
       <c r="Y29" s="1">
-        <v>86460.0</v>
+        <v>86460</v>
       </c>
       <c r="Z29" s="1"/>
       <c r="AA29">
@@ -7746,7 +7790,7 @@
         <v>40</v>
       </c>
       <c r="C30" s="4">
-        <v>19021.2</v>
+        <v>19021</v>
       </c>
       <c r="D30" s="2">
         <v>0.1</v>
@@ -7766,7 +7810,7 @@
         <v>0.5</v>
       </c>
       <c r="M30" s="1">
-        <v>-9510.6</v>
+        <v>-9510.5</v>
       </c>
       <c r="N30" s="2">
         <v>0.5</v>
@@ -7775,28 +7819,28 @@
         <v>0</v>
       </c>
       <c r="P30" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30" s="1">
         <v>0.0</v>
       </c>
       <c r="U30" s="6">
-        <v>-67658.59716</v>
+        <v>-67658.5</v>
       </c>
       <c r="V30" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2"/>
       <c r="X30" s="1">
-        <v>19021.2</v>
+        <v>19021</v>
       </c>
       <c r="Y30" s="1">
-        <v>95106.0</v>
+        <v>95105</v>
       </c>
       <c r="Z30" s="1"/>
       <c r="AA30">
@@ -7818,7 +7862,7 @@
         <v>41</v>
       </c>
       <c r="C31" s="4">
-        <v>20923.32</v>
+        <v>20923</v>
       </c>
       <c r="D31" s="2">
         <v>0.1</v>
@@ -7838,7 +7882,7 @@
         <v>0.5</v>
       </c>
       <c r="M31" s="1">
-        <v>-10461.66</v>
+        <v>-10461.5</v>
       </c>
       <c r="N31" s="2">
         <v>0.5</v>
@@ -7847,35 +7891,35 @@
         <v>0</v>
       </c>
       <c r="P31" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31" s="1">
         <v>0.0</v>
       </c>
       <c r="U31" s="6">
-        <v>-74424.456876</v>
+        <v>-74424.5</v>
       </c>
       <c r="V31" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W31" s="2"/>
       <c r="X31" s="1">
-        <v>20923.32</v>
+        <v>20923</v>
       </c>
       <c r="Y31" s="1">
-        <v>104616.6</v>
+        <v>104615</v>
       </c>
       <c r="Z31" s="1"/>
       <c r="AA31">
         <v>0.0</v>
       </c>
       <c r="AB31">
-        <v>-74424.0</v>
+        <v>-74425.0</v>
       </c>
       <c r="AC31" s="2"/>
       <c r="AD31" t="s">
@@ -7890,7 +7934,7 @@
         <v>42</v>
       </c>
       <c r="C32" s="4">
-        <v>23015.652</v>
+        <v>23015</v>
       </c>
       <c r="D32" s="2">
         <v>0.1</v>
@@ -7910,7 +7954,7 @@
         <v>0.5</v>
       </c>
       <c r="M32" s="1">
-        <v>-11507.826</v>
+        <v>-11507.5</v>
       </c>
       <c r="N32" s="2">
         <v>0.5</v>
@@ -7919,28 +7963,28 @@
         <v>0</v>
       </c>
       <c r="P32" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32" s="1">
         <v>0.0</v>
       </c>
       <c r="U32" s="6">
-        <v>-81866.9025636</v>
+        <v>-81866.5</v>
       </c>
       <c r="V32" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2"/>
       <c r="X32" s="1">
-        <v>23015.652</v>
+        <v>23015</v>
       </c>
       <c r="Y32" s="1">
-        <v>115078.26</v>
+        <v>115075</v>
       </c>
       <c r="Z32" s="1"/>
       <c r="AA32">
@@ -7962,7 +8006,7 @@
         <v>43</v>
       </c>
       <c r="C33" s="4">
-        <v>25317.2172</v>
+        <v>25316</v>
       </c>
       <c r="D33" s="2">
         <v>0.1</v>
@@ -7982,7 +8026,7 @@
         <v>0.5</v>
       </c>
       <c r="M33" s="1">
-        <v>-12658.6086</v>
+        <v>-12658.0</v>
       </c>
       <c r="N33" s="2">
         <v>0.5</v>
@@ -7991,28 +8035,28 @@
         <v>0</v>
       </c>
       <c r="P33" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33" s="1">
         <v>0.0</v>
       </c>
       <c r="U33" s="6">
-        <v>-90053.59281996</v>
+        <v>-90054.0</v>
       </c>
       <c r="V33" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2"/>
       <c r="X33" s="1">
-        <v>25317.2172</v>
+        <v>25316</v>
       </c>
       <c r="Y33" s="1">
-        <v>126586.086</v>
+        <v>126580</v>
       </c>
       <c r="Z33" s="1"/>
       <c r="AA33">
@@ -8034,7 +8078,7 @@
         <v>44</v>
       </c>
       <c r="C34" s="4">
-        <v>27848.93892</v>
+        <v>27847</v>
       </c>
       <c r="D34" s="2">
         <v>0.1</v>
@@ -8054,7 +8098,7 @@
         <v>0.5</v>
       </c>
       <c r="M34" s="1">
-        <v>-13924.46946</v>
+        <v>-13923.5</v>
       </c>
       <c r="N34" s="2">
         <v>0.5</v>
@@ -8063,35 +8107,35 @@
         <v>0</v>
       </c>
       <c r="P34" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34" s="1">
         <v>0.0</v>
       </c>
       <c r="U34" s="6">
-        <v>-99058.952101956</v>
+        <v>-99059.5</v>
       </c>
       <c r="V34" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W34" s="2"/>
       <c r="X34" s="1">
-        <v>27848.93892</v>
+        <v>27847</v>
       </c>
       <c r="Y34" s="1">
-        <v>139244.6946</v>
+        <v>139235</v>
       </c>
       <c r="Z34" s="1"/>
       <c r="AA34">
         <v>0.0</v>
       </c>
       <c r="AB34">
-        <v>-99059.0</v>
+        <v>-99060.0</v>
       </c>
       <c r="AC34" s="2"/>
       <c r="AD34" t="s">
@@ -8106,13 +8150,13 @@
         <v>45</v>
       </c>
       <c r="C35" s="4">
-        <v>30633.832812</v>
+        <v>30631</v>
       </c>
       <c r="D35" s="2">
         <v>0.1</v>
       </c>
       <c r="E35" s="5">
-        <v>124281.76371815</v>
+        <v>124281.76371816</v>
       </c>
       <c r="F35" s="2">
         <v>0.1</v>
@@ -8126,7 +8170,7 @@
         <v>0.5</v>
       </c>
       <c r="M35" s="1">
-        <v>-15316.916406</v>
+        <v>-15315.5</v>
       </c>
       <c r="N35" s="2">
         <v>0.5</v>
@@ -8135,35 +8179,35 @@
         <v>0</v>
       </c>
       <c r="P35" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35" s="1">
         <v>0.0</v>
       </c>
       <c r="U35" s="6">
-        <v>-108964.84731215</v>
+        <v>-108965.5</v>
       </c>
       <c r="V35" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2"/>
       <c r="X35" s="1">
-        <v>30633.832812</v>
+        <v>30631</v>
       </c>
       <c r="Y35" s="1">
-        <v>153169.16406</v>
+        <v>153155</v>
       </c>
       <c r="Z35" s="1"/>
       <c r="AA35">
         <v>0.0</v>
       </c>
       <c r="AB35">
-        <v>-108965.0</v>
+        <v>-108966.0</v>
       </c>
       <c r="AC35" s="2"/>
       <c r="AD35" t="s">
@@ -8178,13 +8222,13 @@
         <v>46</v>
       </c>
       <c r="C36" s="4">
-        <v>33697.2160932</v>
+        <v>33694</v>
       </c>
       <c r="D36" s="2">
         <v>0.1</v>
       </c>
       <c r="E36" s="5">
-        <v>136709.94008997</v>
+        <v>136709.94008998</v>
       </c>
       <c r="F36" s="2">
         <v>0.1</v>
@@ -8198,7 +8242,7 @@
         <v>0.5</v>
       </c>
       <c r="M36" s="1">
-        <v>-16848.6080466</v>
+        <v>-16847.0</v>
       </c>
       <c r="N36" s="2">
         <v>0.5</v>
@@ -8207,35 +8251,35 @@
         <v>0</v>
       </c>
       <c r="P36" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36" s="1">
         <v>0.0</v>
       </c>
       <c r="U36" s="6">
-        <v>-119861.33204337</v>
+        <v>-119862.0</v>
       </c>
       <c r="V36" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W36" s="2"/>
       <c r="X36" s="1">
-        <v>33697.2160932</v>
+        <v>33694</v>
       </c>
       <c r="Y36" s="1">
-        <v>168486.080466</v>
+        <v>168470</v>
       </c>
       <c r="Z36" s="1"/>
       <c r="AA36">
         <v>0.0</v>
       </c>
       <c r="AB36">
-        <v>-119861.0</v>
+        <v>-119863.0</v>
       </c>
       <c r="AC36" s="2"/>
       <c r="AD36" t="s">
@@ -8250,13 +8294,13 @@
         <v>47</v>
       </c>
       <c r="C37" s="4">
-        <v>37066.93770252</v>
+        <v>37063</v>
       </c>
       <c r="D37" s="2">
         <v>0.1</v>
       </c>
       <c r="E37" s="5">
-        <v>150380.93409896</v>
+        <v>150380.93409898</v>
       </c>
       <c r="F37" s="2">
         <v>0.1</v>
@@ -8270,7 +8314,7 @@
         <v>0.5</v>
       </c>
       <c r="M37" s="1">
-        <v>-18533.46885126</v>
+        <v>-18531.5</v>
       </c>
       <c r="N37" s="2">
         <v>0.5</v>
@@ -8279,35 +8323,35 @@
         <v>0</v>
       </c>
       <c r="P37" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37" s="1">
         <v>0.0</v>
       </c>
       <c r="U37" s="6">
-        <v>-131847.4652477</v>
+        <v>-131848.5</v>
       </c>
       <c r="V37" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2"/>
       <c r="X37" s="1">
-        <v>37066.93770252</v>
+        <v>37063</v>
       </c>
       <c r="Y37" s="1">
-        <v>185334.6885126</v>
+        <v>185315</v>
       </c>
       <c r="Z37" s="1"/>
       <c r="AA37">
         <v>0.0</v>
       </c>
       <c r="AB37">
-        <v>-131847.0</v>
+        <v>-131849.0</v>
       </c>
       <c r="AC37" s="2"/>
       <c r="AD37" t="s">
@@ -8322,13 +8366,13 @@
         <v>48</v>
       </c>
       <c r="C38" s="8">
-        <v>40773.631472772</v>
+        <v>40769</v>
       </c>
       <c r="D38" s="9">
         <v>0.1</v>
       </c>
       <c r="E38" s="8">
-        <v>165419.02750886</v>
+        <v>165419.02750888</v>
       </c>
       <c r="F38" s="9">
         <v>0.1</v>
@@ -8342,7 +8386,7 @@
         <v>0.5</v>
       </c>
       <c r="M38" s="8">
-        <v>-20386.815736386</v>
+        <v>-20384.5</v>
       </c>
       <c r="N38" s="9">
         <v>0.5</v>
@@ -8351,35 +8395,35 @@
         <v>0</v>
       </c>
       <c r="P38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q38" s="9"/>
       <c r="R38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S38" s="9"/>
       <c r="T38" s="8">
         <v>0.0</v>
       </c>
       <c r="U38" s="8">
-        <v>-145032.21177247</v>
+        <v>-145034.5</v>
       </c>
       <c r="V38" s="8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W38" s="9"/>
       <c r="X38" s="8">
-        <v>40773.631472772</v>
+        <v>40769</v>
       </c>
       <c r="Y38" s="8">
-        <v>203868.15736386</v>
+        <v>203845</v>
       </c>
       <c r="Z38" s="8"/>
       <c r="AA38" s="7">
         <v>0.0</v>
       </c>
       <c r="AB38" s="7">
-        <v>-145032.0</v>
+        <v>-145035.0</v>
       </c>
       <c r="AC38" s="9"/>
       <c r="AD38" s="7" t="s">
@@ -8394,13 +8438,13 @@
         <v>49</v>
       </c>
       <c r="C39" s="4">
-        <v>44850.994620049</v>
+        <v>15720</v>
       </c>
       <c r="D39" s="2">
         <v>0.1</v>
       </c>
       <c r="E39" s="5">
-        <v>181960.93025975</v>
+        <v>181960.93025977</v>
       </c>
       <c r="F39" s="2">
         <v>0.1</v>
@@ -8414,7 +8458,7 @@
         <v>0.5</v>
       </c>
       <c r="M39" s="1">
-        <v>-22425.497310025</v>
+        <v>-7860.0</v>
       </c>
       <c r="N39" s="2">
         <v>0.5</v>
@@ -8423,35 +8467,35 @@
         <v>0</v>
       </c>
       <c r="P39" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39" s="1">
         <v>0.0</v>
       </c>
       <c r="U39" s="6">
-        <v>-159535.43294972</v>
+        <v>-174100.0</v>
       </c>
       <c r="V39" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2"/>
       <c r="X39" s="1">
-        <v>44850.994620049</v>
+        <v>15720</v>
       </c>
       <c r="Y39" s="1">
-        <v>224254.97310025</v>
+        <v>78600</v>
       </c>
       <c r="Z39" s="1"/>
       <c r="AA39">
         <v>0.0</v>
       </c>
       <c r="AB39">
-        <v>-159535.0</v>
+        <v>-174101.0</v>
       </c>
       <c r="AC39" s="2"/>
       <c r="AD39" t="s">
@@ -8466,13 +8510,11 @@
         <v>50</v>
       </c>
       <c r="C40" s="11">
-        <v>15720.0</v>
-      </c>
-      <c r="D40" s="12">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="D40" s="12"/>
       <c r="E40" s="11">
-        <v>200157.02328572</v>
+        <v>200157.02328575</v>
       </c>
       <c r="F40" s="12">
         <v>0.1</v>
@@ -8486,7 +8528,7 @@
         <v>0.5</v>
       </c>
       <c r="M40" s="11">
-        <v>-7860.0</v>
+        <v>0.0</v>
       </c>
       <c r="N40" s="12">
         <v>0.5</v>
@@ -8495,35 +8537,35 @@
         <v>0</v>
       </c>
       <c r="P40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q40" s="12"/>
       <c r="R40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S40" s="12"/>
       <c r="T40" s="11">
         <v>0.0</v>
       </c>
       <c r="U40" s="11">
-        <v>-192297.02328572</v>
+        <v>-200157.0</v>
       </c>
       <c r="V40" s="11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W40" s="12"/>
       <c r="X40" s="11">
-        <v>15720.0</v>
+        <v>0</v>
       </c>
       <c r="Y40" s="11">
-        <v>78600.0</v>
+        <v>0</v>
       </c>
       <c r="Z40" s="11"/>
       <c r="AA40" s="10">
         <v>0.0</v>
       </c>
       <c r="AB40" s="10">
-        <v>-192297.0</v>
+        <v>-200157.0</v>
       </c>
       <c r="AC40" s="12"/>
       <c r="AD40" s="10" t="s">
@@ -8538,11 +8580,11 @@
         <v>51</v>
       </c>
       <c r="C41" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="5">
-        <v>220172.72561429</v>
+        <v>220172.72561433</v>
       </c>
       <c r="F41" s="2">
         <v>0.1</v>
@@ -8565,28 +8607,28 @@
         <v>0</v>
       </c>
       <c r="P41" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41" s="1">
         <v>0.0</v>
       </c>
       <c r="U41" s="6">
-        <v>-220172.72561429</v>
+        <v>-220172.0</v>
       </c>
       <c r="V41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2"/>
       <c r="X41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z41" s="1"/>
       <c r="AA41">
@@ -8608,11 +8650,11 @@
         <v>52</v>
       </c>
       <c r="C42" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="5">
-        <v>242189.99817572</v>
+        <v>242189.99817576</v>
       </c>
       <c r="F42" s="2">
         <v>0.1</v>
@@ -8635,28 +8677,28 @@
         <v>0</v>
       </c>
       <c r="P42" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42" s="1">
         <v>0.0</v>
       </c>
       <c r="U42" s="6">
-        <v>-242189.99817572</v>
+        <v>-242189.0</v>
       </c>
       <c r="V42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W42" s="2"/>
       <c r="X42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="1"/>
       <c r="AA42">
@@ -8678,11 +8720,11 @@
         <v>53</v>
       </c>
       <c r="C43" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="5">
-        <v>266408.99799329</v>
+        <v>266408.99799334</v>
       </c>
       <c r="F43" s="2">
         <v>0.1</v>
@@ -8705,28 +8747,28 @@
         <v>0</v>
       </c>
       <c r="P43" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43" s="1">
         <v>0.0</v>
       </c>
       <c r="U43" s="6">
-        <v>-266408.99799329</v>
+        <v>-266408.0</v>
       </c>
       <c r="V43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2"/>
       <c r="X43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z43" s="1"/>
       <c r="AA43">
@@ -8748,11 +8790,11 @@
         <v>54</v>
       </c>
       <c r="C44" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="5">
-        <v>293049.89779262</v>
+        <v>293049.89779267</v>
       </c>
       <c r="F44" s="2">
         <v>0.1</v>
@@ -8775,28 +8817,28 @@
         <v>0</v>
       </c>
       <c r="P44" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44" s="1">
         <v>0.0</v>
       </c>
       <c r="U44" s="6">
-        <v>-293049.89779262</v>
+        <v>-293049.0</v>
       </c>
       <c r="V44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W44" s="2"/>
       <c r="X44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z44" s="1"/>
       <c r="AA44">
@@ -8818,15 +8860,13 @@
         <v>55</v>
       </c>
       <c r="C45" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="5">
-        <v>322354.88757189</v>
-      </c>
-      <c r="F45" s="2">
-        <v>0.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F45" s="2"/>
       <c r="G45" s="1"/>
       <c r="H45" s="2"/>
       <c r="I45" s="1"/>
@@ -8845,39 +8885,39 @@
         <v>0</v>
       </c>
       <c r="P45" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45" s="1">
         <v>0.0</v>
       </c>
       <c r="U45" s="6">
-        <v>-322354.88757189</v>
+        <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2"/>
       <c r="X45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z45" s="1"/>
       <c r="AA45">
         <v>0.0</v>
       </c>
       <c r="AB45">
-        <v>-322355.0</v>
+        <v>0.0</v>
       </c>
       <c r="AC45" s="2"/>
       <c r="AD45" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8888,11 +8928,11 @@
         <v>56</v>
       </c>
       <c r="C46" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="1"/>
@@ -8913,11 +8953,11 @@
         <v>0</v>
       </c>
       <c r="P46" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46" s="1">
@@ -8927,14 +8967,14 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W46" s="2"/>
       <c r="X46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z46" s="1"/>
       <c r="AA46">
@@ -8956,11 +8996,11 @@
         <v>57</v>
       </c>
       <c r="C47" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2"/>
       <c r="G47" s="1"/>
@@ -8981,11 +9021,11 @@
         <v>0</v>
       </c>
       <c r="P47" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="2"/>
       <c r="R47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47" s="1">
@@ -8995,14 +9035,14 @@
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W47" s="2"/>
       <c r="X47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z47" s="1"/>
       <c r="AA47">
@@ -9024,11 +9064,11 @@
         <v>58</v>
       </c>
       <c r="C48" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F48" s="2"/>
       <c r="G48" s="1"/>
@@ -9049,11 +9089,11 @@
         <v>0</v>
       </c>
       <c r="P48" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q48" s="2"/>
       <c r="R48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48" s="1">
@@ -9063,14 +9103,14 @@
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W48" s="2"/>
       <c r="X48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z48" s="1"/>
       <c r="AA48">
@@ -9092,11 +9132,11 @@
         <v>59</v>
       </c>
       <c r="C49" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2"/>
       <c r="G49" s="1"/>
@@ -9117,11 +9157,11 @@
         <v>0</v>
       </c>
       <c r="P49" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49" s="1">
@@ -9131,14 +9171,14 @@
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2"/>
       <c r="X49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z49" s="1"/>
       <c r="AA49">
@@ -9160,11 +9200,11 @@
         <v>60</v>
       </c>
       <c r="C50" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F50" s="2"/>
       <c r="G50" s="1"/>
@@ -9185,11 +9225,11 @@
         <v>0</v>
       </c>
       <c r="P50" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50" s="1">
@@ -9199,14 +9239,14 @@
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W50" s="2"/>
       <c r="X50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z50" s="1"/>
       <c r="AA50">
@@ -9228,11 +9268,11 @@
         <v>61</v>
       </c>
       <c r="C51" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2"/>
       <c r="G51" s="1"/>
@@ -9253,11 +9293,11 @@
         <v>0</v>
       </c>
       <c r="P51" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51" s="1">
@@ -9267,14 +9307,14 @@
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W51" s="2"/>
       <c r="X51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z51" s="1"/>
       <c r="AA51">
@@ -9296,11 +9336,11 @@
         <v>62</v>
       </c>
       <c r="C52" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F52" s="2"/>
       <c r="G52" s="1"/>
@@ -9321,11 +9361,11 @@
         <v>0</v>
       </c>
       <c r="P52" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q52" s="2"/>
       <c r="R52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52" s="1">
@@ -9335,14 +9375,14 @@
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W52" s="2"/>
       <c r="X52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z52" s="1"/>
       <c r="AA52">
@@ -9364,11 +9404,11 @@
         <v>63</v>
       </c>
       <c r="C53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D53" s="14"/>
       <c r="E53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F53" s="14"/>
       <c r="G53" s="13"/>
@@ -9389,11 +9429,11 @@
         <v>0</v>
       </c>
       <c r="P53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q53" s="14"/>
       <c r="R53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S53" s="14"/>
       <c r="T53" s="13">
@@ -9403,14 +9443,14 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W53" s="14"/>
       <c r="X53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y53" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z53" s="13"/>
       <c r="AA53" s="3">
@@ -9432,11 +9472,11 @@
         <v>64</v>
       </c>
       <c r="C54" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F54" s="2"/>
       <c r="G54" s="1"/>
@@ -9457,11 +9497,11 @@
         <v>0</v>
       </c>
       <c r="P54" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54" s="1">
@@ -9471,14 +9511,14 @@
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W54" s="2"/>
       <c r="X54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z54" s="1"/>
       <c r="AA54">
@@ -9500,11 +9540,11 @@
         <v>65</v>
       </c>
       <c r="C55" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2"/>
       <c r="G55" s="1"/>
@@ -9525,11 +9565,11 @@
         <v>0</v>
       </c>
       <c r="P55" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55" s="1">
@@ -9539,14 +9579,14 @@
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W55" s="2"/>
       <c r="X55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z55" s="1"/>
       <c r="AA55">
@@ -9568,11 +9608,11 @@
         <v>66</v>
       </c>
       <c r="C56" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F56" s="2"/>
       <c r="G56" s="1"/>
@@ -9593,11 +9633,11 @@
         <v>0</v>
       </c>
       <c r="P56" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56" s="1">
@@ -9607,14 +9647,14 @@
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W56" s="2"/>
       <c r="X56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z56" s="1"/>
       <c r="AA56">
@@ -9636,11 +9676,11 @@
         <v>67</v>
       </c>
       <c r="C57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D57" s="14"/>
       <c r="E57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F57" s="14"/>
       <c r="G57" s="13"/>
@@ -9661,11 +9701,11 @@
         <v>0</v>
       </c>
       <c r="P57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q57" s="14"/>
       <c r="R57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S57" s="14"/>
       <c r="T57" s="13">
@@ -9675,14 +9715,14 @@
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W57" s="14"/>
       <c r="X57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y57" s="13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z57" s="13"/>
       <c r="AA57" s="3">
@@ -9704,11 +9744,11 @@
         <v>68</v>
       </c>
       <c r="C58" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2"/>
       <c r="G58" s="1"/>
@@ -9729,11 +9769,11 @@
         <v>0</v>
       </c>
       <c r="P58" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58" s="1">
@@ -9743,14 +9783,14 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W58" s="2"/>
       <c r="X58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z58" s="1"/>
       <c r="AA58">
@@ -9772,11 +9812,11 @@
         <v>69</v>
       </c>
       <c r="C59" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2"/>
       <c r="G59" s="1"/>
@@ -9797,11 +9837,11 @@
         <v>0</v>
       </c>
       <c r="P59" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59" s="1">
@@ -9811,14 +9851,14 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2"/>
       <c r="X59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z59" s="1"/>
       <c r="AA59">
@@ -9840,11 +9880,11 @@
         <v>70</v>
       </c>
       <c r="C60" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2"/>
       <c r="G60" s="1"/>
@@ -9865,11 +9905,11 @@
         <v>0</v>
       </c>
       <c r="P60" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60" s="1">
@@ -9879,14 +9919,14 @@
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W60" s="2"/>
       <c r="X60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z60" s="1"/>
       <c r="AA60">
@@ -9908,11 +9948,11 @@
         <v>71</v>
       </c>
       <c r="C61" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2"/>
       <c r="G61" s="1"/>
@@ -9933,11 +9973,11 @@
         <v>0</v>
       </c>
       <c r="P61" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61" s="1">
@@ -9947,14 +9987,14 @@
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2"/>
       <c r="X61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="1"/>
       <c r="AA61">
@@ -9976,11 +10016,11 @@
         <v>72</v>
       </c>
       <c r="C62" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2"/>
       <c r="G62" s="1"/>
@@ -10001,11 +10041,11 @@
         <v>0</v>
       </c>
       <c r="P62" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="2"/>
       <c r="R62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62" s="1">
@@ -10015,14 +10055,14 @@
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W62" s="2"/>
       <c r="X62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z62" s="1"/>
       <c r="AA62">
@@ -10044,11 +10084,11 @@
         <v>73</v>
       </c>
       <c r="C63" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2"/>
       <c r="G63" s="1"/>
@@ -10069,11 +10109,11 @@
         <v>0</v>
       </c>
       <c r="P63" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q63" s="2"/>
       <c r="R63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63" s="1">
@@ -10083,14 +10123,14 @@
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2"/>
       <c r="X63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z63" s="1"/>
       <c r="AA63">
@@ -10112,11 +10152,11 @@
         <v>74</v>
       </c>
       <c r="C64" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="1"/>
@@ -10137,11 +10177,11 @@
         <v>0</v>
       </c>
       <c r="P64" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64" s="1">
@@ -10151,14 +10191,14 @@
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W64" s="2"/>
       <c r="X64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z64" s="1"/>
       <c r="AA64">
@@ -10180,11 +10220,11 @@
         <v>75</v>
       </c>
       <c r="C65" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2"/>
       <c r="G65" s="1"/>
@@ -10205,11 +10245,11 @@
         <v>0</v>
       </c>
       <c r="P65" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65" s="1">
@@ -10219,14 +10259,14 @@
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W65" s="2"/>
       <c r="X65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z65" s="1"/>
       <c r="AA65">
@@ -10248,11 +10288,11 @@
         <v>76</v>
       </c>
       <c r="C66" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="1"/>
@@ -10273,11 +10313,11 @@
         <v>0</v>
       </c>
       <c r="P66" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66" s="1">
@@ -10287,14 +10327,14 @@
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2"/>
       <c r="X66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z66" s="1"/>
       <c r="AA66">
@@ -10316,11 +10356,11 @@
         <v>77</v>
       </c>
       <c r="C67" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2"/>
       <c r="G67" s="1"/>
@@ -10341,11 +10381,11 @@
         <v>0</v>
       </c>
       <c r="P67" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q67" s="2"/>
       <c r="R67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67" s="1">
@@ -10355,14 +10395,14 @@
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W67" s="2"/>
       <c r="X67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z67" s="1"/>
       <c r="AA67">
@@ -10384,11 +10424,11 @@
         <v>78</v>
       </c>
       <c r="C68" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2"/>
       <c r="G68" s="1"/>
@@ -10409,11 +10449,11 @@
         <v>0</v>
       </c>
       <c r="P68" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68" s="1">
@@ -10423,14 +10463,14 @@
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W68" s="2"/>
       <c r="X68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z68" s="1"/>
       <c r="AA68">
@@ -10452,11 +10492,11 @@
         <v>79</v>
       </c>
       <c r="C69" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2"/>
       <c r="G69" s="1"/>
@@ -10477,11 +10517,11 @@
         <v>0</v>
       </c>
       <c r="P69" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69" s="1">
@@ -10491,14 +10531,14 @@
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W69" s="2"/>
       <c r="X69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z69" s="1"/>
       <c r="AA69">
@@ -10520,11 +10560,11 @@
         <v>80</v>
       </c>
       <c r="C70" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2"/>
       <c r="G70" s="1"/>
@@ -10545,11 +10585,11 @@
         <v>0</v>
       </c>
       <c r="P70" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70" s="1">
@@ -10559,14 +10599,14 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2"/>
       <c r="X70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z70" s="1"/>
       <c r="AA70">
@@ -10588,11 +10628,11 @@
         <v>81</v>
       </c>
       <c r="C71" s="4">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F71" s="2"/>
       <c r="G71" s="1"/>
@@ -10613,11 +10653,11 @@
         <v>0</v>
       </c>
       <c r="P71" s="6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q71" s="2"/>
       <c r="R71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71" s="1">
@@ -10627,14 +10667,14 @@
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W71" s="2"/>
       <c r="X71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z71" s="1"/>
       <c r="AA71">
@@ -10656,11 +10696,11 @@
         <v>82</v>
       </c>
       <c r="C72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D72" s="16"/>
       <c r="E72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F72" s="16"/>
       <c r="G72" s="5"/>
@@ -10681,11 +10721,11 @@
         <v>0</v>
       </c>
       <c r="P72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="16"/>
       <c r="R72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="S72" s="16"/>
       <c r="T72" s="5">
@@ -10695,14 +10735,14 @@
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="W72" s="16"/>
       <c r="X72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Y72" s="5">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="Z72" s="5"/>
       <c r="AA72" s="15">
@@ -10954,4 +10994,32 @@
   </headerFooter>
   <tableParts count="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xml:space="preserve" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
+    <oddHeader/>
+    <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+  <tableParts count="0"/>
+</worksheet>
 </file>
--- a/tests/Feature/config/child_tenpercent.xlsx
+++ b/tests/Feature/config/child_tenpercent.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="67">
   <si>
     <t>private</t>
   </si>
@@ -100,6 +100,9 @@
     <t>% Økning</t>
   </si>
   <si>
+    <t>Formue innskutt</t>
+  </si>
+  <si>
     <t>Formue skattbar</t>
   </si>
   <si>
@@ -145,123 +148,99 @@
     <t>Income and expences related to children</t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 0 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 0 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using current value: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing current amount: 3000 * 12 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 39600 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 39600 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 43560 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 43560 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 47916 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 47916 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 52708 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 52708 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 57978 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 57978 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using previous value: 63776 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing previous amount: 63776 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 70154 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 70154 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 77169 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 77169 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 84886 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 84886 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 93375 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 93375 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 102712 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 102712 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 112983 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 112983 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 124282 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 124282 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 136710 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 136710 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 150381 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 150381 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 165419 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 165419 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Barnetrygd no transferResource &amp;&amp; transferRule
-Using previous value: 181961 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">BarnetrygdUsing previous amount: 181961 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 200157 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 200157 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 220173 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 220173 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 242190 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 242190 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Using previous value: 266409 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Using previous amount: 266409 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
   <si>
-    <t xml:space="preserve"> no transferResource &amp;&amp; transferRule
-Slutt på sponsing av barnUsing previous value: 293050 Asset rule  no transferResource &amp;&amp; transferRule
+    <t xml:space="preserve">Slutt på sponsing av barnUsing previous amount: 293050 Asset rule  no transferResource &amp;&amp; transferRule
 </t>
   </si>
 </sst>
@@ -683,14 +662,14 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -733,10 +712,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -799,10 +778,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -831,7 +810,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -876,20 +857,18 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="6"/>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
@@ -897,13 +876,15 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6"/>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6"/>
     </row>
     <row r="7" spans="1:31">
       <c r="A7">
@@ -948,20 +929,18 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U7" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="6"/>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
@@ -969,13 +948,15 @@
         <v>0</v>
       </c>
       <c r="AA7">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7"/>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7"/>
     </row>
     <row r="8" spans="1:31">
       <c r="A8">
@@ -1020,20 +1001,18 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U8" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="6"/>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
@@ -1041,13 +1020,15 @@
         <v>0</v>
       </c>
       <c r="AA8">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8"/>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8"/>
     </row>
     <row r="9" spans="1:31">
       <c r="A9">
@@ -1092,20 +1073,18 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U9" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="6"/>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
@@ -1113,13 +1092,15 @@
         <v>0</v>
       </c>
       <c r="AA9">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9"/>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10">
@@ -1164,20 +1145,18 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U10" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="6"/>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
@@ -1185,13 +1164,15 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10"/>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10"/>
     </row>
     <row r="11" spans="1:31">
       <c r="A11">
@@ -1236,20 +1217,18 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U11" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="6"/>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
@@ -1257,13 +1236,15 @@
         <v>0</v>
       </c>
       <c r="AA11">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11"/>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11"/>
     </row>
     <row r="12" spans="1:31">
       <c r="A12">
@@ -1308,20 +1289,18 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U12" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="6"/>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
@@ -1329,13 +1308,15 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12"/>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12"/>
     </row>
     <row r="13" spans="1:31">
       <c r="A13">
@@ -1380,20 +1361,18 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U13" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="6"/>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
@@ -1401,13 +1380,15 @@
         <v>0</v>
       </c>
       <c r="AA13">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13"/>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13"/>
     </row>
     <row r="14" spans="1:31">
       <c r="A14">
@@ -1452,20 +1433,18 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U14" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="6"/>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
@@ -1473,13 +1452,15 @@
         <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14"/>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14"/>
     </row>
     <row r="15" spans="1:31">
       <c r="A15">
@@ -1524,20 +1505,18 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U15" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="6"/>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
@@ -1545,13 +1524,15 @@
         <v>0</v>
       </c>
       <c r="AA15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15"/>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15"/>
     </row>
     <row r="16" spans="1:31">
       <c r="A16">
@@ -1596,20 +1577,18 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U16" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
@@ -1617,13 +1596,15 @@
         <v>0</v>
       </c>
       <c r="AA16">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16"/>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16"/>
     </row>
     <row r="17" spans="1:31">
       <c r="A17">
@@ -1668,20 +1649,18 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U17" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
@@ -1689,13 +1668,15 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17"/>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17"/>
     </row>
     <row r="18" spans="1:31">
       <c r="A18">
@@ -1740,20 +1721,18 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U18" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
@@ -1761,13 +1740,15 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18"/>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18"/>
     </row>
     <row r="19" spans="1:31">
       <c r="A19">
@@ -1812,20 +1793,18 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U19" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
@@ -1833,13 +1812,15 @@
         <v>0</v>
       </c>
       <c r="AA19">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19"/>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19"/>
     </row>
     <row r="20" spans="1:31">
       <c r="A20">
@@ -1884,20 +1865,18 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U20" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="6"/>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
@@ -1905,13 +1884,15 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20"/>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20"/>
     </row>
     <row r="21" spans="1:31">
       <c r="A21">
@@ -1956,20 +1937,18 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U21" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="6"/>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
@@ -1977,13 +1956,15 @@
         <v>0</v>
       </c>
       <c r="AA21">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21"/>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21"/>
     </row>
     <row r="22" spans="1:31">
       <c r="A22">
@@ -2028,36 +2009,37 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U22" s="6">
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="6"/>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
-      </c>
-      <c r="Y22" s="1">
-        <v>105960</v>
       </c>
       <c r="Z22" s="1">
         <v>105960</v>
       </c>
       <c r="AA22">
-        <v>0.0</v>
+        <v>105960</v>
       </c>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22">
         <v>-1.1987542468856</v>
       </c>
-      <c r="AD22"/>
+      <c r="AE22"/>
     </row>
     <row r="23" spans="1:31">
       <c r="A23">
@@ -2102,36 +2084,37 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U23" s="6">
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="1">
         <v>-27944.5</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>23311</v>
-      </c>
-      <c r="Y23" s="1">
-        <v>116555</v>
       </c>
       <c r="Z23" s="1">
         <v>116555</v>
       </c>
       <c r="AA23">
-        <v>0.0</v>
+        <v>116555</v>
       </c>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-27945.0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23">
         <v>-1.1987902706877</v>
       </c>
-      <c r="AD23"/>
+      <c r="AE23"/>
     </row>
     <row r="24" spans="1:31">
       <c r="A24">
@@ -2176,36 +2159,37 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U24" s="6">
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="1">
         <v>-30739.0</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>25642</v>
-      </c>
-      <c r="Y24" s="1">
-        <v>128210</v>
       </c>
       <c r="Z24" s="1">
         <v>128210</v>
       </c>
       <c r="AA24">
-        <v>0.0</v>
+        <v>128210</v>
       </c>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-30739.0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24">
         <v>-1.198775446533</v>
       </c>
-      <c r="AD24"/>
+      <c r="AE24"/>
     </row>
     <row r="25" spans="1:31">
       <c r="A25">
@@ -2250,36 +2234,37 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U25" s="6">
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="1">
         <v>-33813.0</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>28206</v>
-      </c>
-      <c r="Y25" s="1">
-        <v>141030</v>
       </c>
       <c r="Z25" s="1">
         <v>141030</v>
       </c>
       <c r="AA25">
-        <v>0.0</v>
+        <v>141030</v>
       </c>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-33813.0</v>
       </c>
-      <c r="AC25" s="2">
+      <c r="AD25">
         <v>-1.198787492023</v>
       </c>
-      <c r="AD25"/>
+      <c r="AE25"/>
     </row>
     <row r="26" spans="1:31">
       <c r="A26">
@@ -2324,36 +2309,37 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U26" s="6">
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="6"/>
+      <c r="V26" s="1">
         <v>-37194.0</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>31026</v>
-      </c>
-      <c r="Y26" s="1">
-        <v>155130</v>
       </c>
       <c r="Z26" s="1">
         <v>155130</v>
       </c>
       <c r="AA26">
-        <v>0.0</v>
+        <v>155130</v>
       </c>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-37195.0</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26">
         <v>-1.1988332366402</v>
       </c>
-      <c r="AD26"/>
+      <c r="AE26"/>
     </row>
     <row r="27" spans="1:31">
       <c r="A27">
@@ -2398,36 +2384,37 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U27" s="6">
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
+      <c r="U27" s="6"/>
+      <c r="V27" s="1">
         <v>-40914.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>34128</v>
-      </c>
-      <c r="Y27" s="1">
-        <v>170640</v>
       </c>
       <c r="Z27" s="1">
         <v>170640</v>
       </c>
       <c r="AA27">
-        <v>0.0</v>
+        <v>170640</v>
       </c>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-40914.0</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27">
         <v>-1.1988396624473</v>
       </c>
-      <c r="AD27"/>
+      <c r="AE27"/>
     </row>
     <row r="28" spans="1:31">
       <c r="A28">
@@ -2472,36 +2459,37 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U28" s="6">
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="1">
         <v>-55916.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y28" s="1">
-        <v>78600</v>
       </c>
       <c r="Z28" s="1">
         <v>78600</v>
       </c>
       <c r="AA28">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-55916.0</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28">
         <v>-3.5569974554707</v>
       </c>
-      <c r="AD28"/>
+      <c r="AE28"/>
     </row>
     <row r="29" spans="1:31">
       <c r="A29">
@@ -2546,36 +2534,37 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U29" s="6">
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="1">
         <v>-61507.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>17292</v>
-      </c>
-      <c r="Y29" s="1">
-        <v>86460</v>
       </c>
       <c r="Z29" s="1">
         <v>86460</v>
       </c>
       <c r="AA29">
-        <v>0.0</v>
+        <v>86460</v>
       </c>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-61508.0</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29">
         <v>-3.5570205875549</v>
       </c>
-      <c r="AD29"/>
+      <c r="AE29"/>
     </row>
     <row r="30" spans="1:31">
       <c r="A30">
@@ -2620,36 +2609,37 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U30" s="6">
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="1">
         <v>-67658.5</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>19021</v>
-      </c>
-      <c r="Y30" s="1">
-        <v>95105</v>
       </c>
       <c r="Z30" s="1">
         <v>95105</v>
       </c>
       <c r="AA30">
-        <v>0.0</v>
+        <v>95105</v>
       </c>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-67659.0</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30">
         <v>-3.5570685032333</v>
       </c>
-      <c r="AD30"/>
+      <c r="AE30"/>
     </row>
     <row r="31" spans="1:31">
       <c r="A31">
@@ -2694,36 +2684,37 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U31" s="6">
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="1">
         <v>-74424.5</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>20923</v>
-      </c>
-      <c r="Y31" s="1">
-        <v>104615</v>
       </c>
       <c r="Z31" s="1">
         <v>104615</v>
       </c>
       <c r="AA31">
-        <v>0.0</v>
+        <v>104615</v>
       </c>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-74425.0</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31">
         <v>-3.5570902834202</v>
       </c>
-      <c r="AD31"/>
+      <c r="AE31"/>
     </row>
     <row r="32" spans="1:31">
       <c r="A32">
@@ -2768,36 +2759,37 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U32" s="6">
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="1">
         <v>-81866.5</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>23015</v>
-      </c>
-      <c r="Y32" s="1">
-        <v>115075</v>
       </c>
       <c r="Z32" s="1">
         <v>115075</v>
       </c>
       <c r="AA32">
-        <v>0.0</v>
+        <v>115075</v>
       </c>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-81867.0</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32">
         <v>-3.5571149250489</v>
       </c>
-      <c r="AD32"/>
+      <c r="AE32"/>
     </row>
     <row r="33" spans="1:31">
       <c r="A33">
@@ -2842,36 +2834,37 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U33" s="6">
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="1">
         <v>-90054.0</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>25316</v>
-      </c>
-      <c r="Y33" s="1">
-        <v>126580</v>
       </c>
       <c r="Z33" s="1">
         <v>126580</v>
       </c>
       <c r="AA33">
-        <v>0.0</v>
+        <v>126580</v>
       </c>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-90054.0</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33">
         <v>-3.5571970295465</v>
       </c>
-      <c r="AD33"/>
+      <c r="AE33"/>
     </row>
     <row r="34" spans="1:31">
       <c r="A34">
@@ -2916,36 +2909,37 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U34" s="6">
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="1">
         <v>-99059.5</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>27847</v>
-      </c>
-      <c r="Y34" s="1">
-        <v>139235</v>
       </c>
       <c r="Z34" s="1">
         <v>139235</v>
       </c>
       <c r="AA34">
-        <v>0.0</v>
+        <v>139235</v>
       </c>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-99060.0</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34">
         <v>-3.557295220311</v>
       </c>
-      <c r="AD34"/>
+      <c r="AE34"/>
     </row>
     <row r="35" spans="1:31">
       <c r="A35">
@@ -2990,36 +2984,37 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U35" s="6">
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="1">
         <v>-108965.5</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>30631</v>
-      </c>
-      <c r="Y35" s="1">
-        <v>153155</v>
       </c>
       <c r="Z35" s="1">
         <v>153155</v>
       </c>
       <c r="AA35">
-        <v>0.0</v>
+        <v>153155</v>
       </c>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-108966.0</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35">
         <v>-3.5573765139891</v>
       </c>
-      <c r="AD35"/>
+      <c r="AE35"/>
     </row>
     <row r="36" spans="1:31">
       <c r="A36">
@@ -3064,36 +3059,37 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U36" s="6">
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="1">
         <v>-119862.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>33694</v>
-      </c>
-      <c r="Y36" s="1">
-        <v>168470</v>
       </c>
       <c r="Z36" s="1">
         <v>168470</v>
       </c>
       <c r="AA36">
-        <v>0.0</v>
+        <v>168470</v>
       </c>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-119863.0</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36">
         <v>-3.5573989434321</v>
       </c>
-      <c r="AD36"/>
+      <c r="AE36"/>
     </row>
     <row r="37" spans="1:31">
       <c r="A37">
@@ -3138,36 +3134,37 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U37" s="6">
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="1">
         <v>-131848.5</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>37063</v>
-      </c>
-      <c r="Y37" s="1">
-        <v>185315</v>
       </c>
       <c r="Z37" s="1">
         <v>185315</v>
       </c>
       <c r="AA37">
-        <v>0.0</v>
+        <v>185315</v>
       </c>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-131849.0</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37">
         <v>-3.5574292421013</v>
       </c>
-      <c r="AD37"/>
+      <c r="AE37"/>
     </row>
     <row r="38" spans="1:31">
       <c r="A38" s="7">
@@ -3212,36 +3209,37 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
-      <c r="U38" s="8">
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
+      <c r="U38" s="8"/>
+      <c r="V38" s="8">
         <v>-145034.5</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>40769</v>
-      </c>
-      <c r="Y38" s="8">
-        <v>203845</v>
       </c>
       <c r="Z38" s="8">
         <v>203845</v>
       </c>
       <c r="AA38" s="7">
-        <v>0.0</v>
+        <v>203845</v>
       </c>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-145035.0</v>
       </c>
-      <c r="AC38" s="9">
+      <c r="AD38" s="7">
         <v>-3.5574824008438</v>
       </c>
-      <c r="AD38" s="7"/>
+      <c r="AE38"/>
     </row>
     <row r="39" spans="1:31">
       <c r="A39">
@@ -3286,36 +3284,37 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U39" s="6">
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="1">
         <v>-174100.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
-      </c>
-      <c r="Y39" s="1">
-        <v>78600</v>
       </c>
       <c r="Z39" s="1">
         <v>78600</v>
       </c>
       <c r="AA39">
-        <v>0.0</v>
+        <v>78600</v>
       </c>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-174101.0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39">
         <v>-11.075127226463</v>
       </c>
-      <c r="AD39"/>
+      <c r="AE39"/>
     </row>
     <row r="40" spans="1:31">
       <c r="A40" s="10">
@@ -3360,20 +3359,18 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
-      <c r="U40" s="11">
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
+      <c r="U40" s="11"/>
+      <c r="V40" s="11">
         <v>-200157.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
@@ -3381,13 +3378,16 @@
         <v>0</v>
       </c>
       <c r="AA40" s="10">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-200157.0</v>
       </c>
-      <c r="AC40" s="12"/>
       <c r="AD40" s="10"/>
+      <c r="AE40"/>
     </row>
     <row r="41" spans="1:31">
       <c r="A41">
@@ -3432,20 +3432,18 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U41" s="6">
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="1">
         <v>-220172.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
@@ -3453,13 +3451,15 @@
         <v>0</v>
       </c>
       <c r="AA41">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-220173.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41"/>
+      <c r="AE41"/>
     </row>
     <row r="42" spans="1:31">
       <c r="A42">
@@ -3504,20 +3504,18 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U42" s="6">
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="1">
         <v>-242189.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
@@ -3525,13 +3523,15 @@
         <v>0</v>
       </c>
       <c r="AA42">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-242190.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42"/>
+      <c r="AE42"/>
     </row>
     <row r="43" spans="1:31">
       <c r="A43">
@@ -3576,20 +3576,18 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U43" s="6">
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="1">
         <v>-266408.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
@@ -3597,13 +3595,15 @@
         <v>0</v>
       </c>
       <c r="AA43">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-266409.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43"/>
+      <c r="AE43"/>
     </row>
     <row r="44" spans="1:31">
       <c r="A44">
@@ -3648,20 +3648,18 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U44" s="6">
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="1">
         <v>-293049.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
@@ -3669,13 +3667,15 @@
         <v>0</v>
       </c>
       <c r="AA44">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-293050.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44"/>
+      <c r="AE44"/>
     </row>
     <row r="45" spans="1:31">
       <c r="A45">
@@ -3720,20 +3720,18 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U45" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
+      <c r="U45" s="6"/>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
@@ -3741,13 +3739,15 @@
         <v>0</v>
       </c>
       <c r="AA45">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45"/>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45"/>
     </row>
     <row r="46" spans="1:31">
       <c r="A46">
@@ -3792,20 +3792,18 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U46" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
+      <c r="U46" s="6"/>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
@@ -3813,13 +3811,15 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46"/>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46"/>
     </row>
     <row r="47" spans="1:31">
       <c r="A47">
@@ -3864,20 +3864,18 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U47" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
+      <c r="U47" s="6"/>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
@@ -3885,13 +3883,15 @@
         <v>0</v>
       </c>
       <c r="AA47">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47"/>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47"/>
     </row>
     <row r="48" spans="1:31">
       <c r="A48">
@@ -3936,20 +3936,18 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U48" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="6"/>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
@@ -3957,13 +3955,15 @@
         <v>0</v>
       </c>
       <c r="AA48">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48"/>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48"/>
     </row>
     <row r="49" spans="1:31">
       <c r="A49">
@@ -4008,20 +4008,18 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U49" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
+      <c r="U49" s="6"/>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
@@ -4029,13 +4027,15 @@
         <v>0</v>
       </c>
       <c r="AA49">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49"/>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49"/>
     </row>
     <row r="50" spans="1:31">
       <c r="A50">
@@ -4080,20 +4080,18 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U50" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
+      <c r="U50" s="6"/>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
@@ -4101,13 +4099,15 @@
         <v>0</v>
       </c>
       <c r="AA50">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50"/>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50"/>
     </row>
     <row r="51" spans="1:31">
       <c r="A51">
@@ -4152,20 +4152,18 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U51" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
+      <c r="U51" s="6"/>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
@@ -4173,13 +4171,15 @@
         <v>0</v>
       </c>
       <c r="AA51">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51"/>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51"/>
     </row>
     <row r="52" spans="1:31">
       <c r="A52">
@@ -4224,20 +4224,18 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U52" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
+      <c r="U52" s="6"/>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
@@ -4245,13 +4243,15 @@
         <v>0</v>
       </c>
       <c r="AA52">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52"/>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52"/>
     </row>
     <row r="53" spans="1:31">
       <c r="A53" s="3">
@@ -4296,20 +4296,18 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
+      <c r="U53" s="13"/>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
@@ -4317,13 +4315,16 @@
         <v>0</v>
       </c>
       <c r="AA53" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD53" s="3"/>
+      <c r="AE53"/>
     </row>
     <row r="54" spans="1:31">
       <c r="A54">
@@ -4368,20 +4369,18 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U54" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
+      <c r="U54" s="6"/>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
@@ -4389,13 +4388,15 @@
         <v>0</v>
       </c>
       <c r="AA54">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54"/>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54"/>
     </row>
     <row r="55" spans="1:31">
       <c r="A55">
@@ -4440,20 +4441,18 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U55" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
+      <c r="U55" s="6"/>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
@@ -4461,13 +4460,15 @@
         <v>0</v>
       </c>
       <c r="AA55">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55"/>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55"/>
     </row>
     <row r="56" spans="1:31">
       <c r="A56">
@@ -4512,20 +4513,18 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U56" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
+      <c r="U56" s="6"/>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
@@ -4533,13 +4532,15 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56"/>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56"/>
     </row>
     <row r="57" spans="1:31">
       <c r="A57" s="3">
@@ -4584,20 +4585,18 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="U57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
+      <c r="U57" s="13"/>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
@@ -4605,13 +4604,16 @@
         <v>0</v>
       </c>
       <c r="AA57" s="3">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
       <c r="AD57" s="3"/>
+      <c r="AE57"/>
     </row>
     <row r="58" spans="1:31">
       <c r="A58">
@@ -4656,20 +4658,18 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U58" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
+      <c r="U58" s="6"/>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
@@ -4677,13 +4677,15 @@
         <v>0</v>
       </c>
       <c r="AA58">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58"/>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58"/>
     </row>
     <row r="59" spans="1:31">
       <c r="A59">
@@ -4728,20 +4730,18 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U59" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
+      <c r="U59" s="6"/>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
@@ -4749,13 +4749,15 @@
         <v>0</v>
       </c>
       <c r="AA59">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59"/>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59"/>
     </row>
     <row r="60" spans="1:31">
       <c r="A60">
@@ -4800,20 +4802,18 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U60" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
+      <c r="U60" s="6"/>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
@@ -4821,13 +4821,15 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60"/>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60"/>
     </row>
     <row r="61" spans="1:31">
       <c r="A61">
@@ -4872,20 +4874,18 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U61" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
+      <c r="U61" s="6"/>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
@@ -4893,13 +4893,15 @@
         <v>0</v>
       </c>
       <c r="AA61">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61"/>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61"/>
     </row>
     <row r="62" spans="1:31">
       <c r="A62">
@@ -4944,20 +4946,18 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U62" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
+      <c r="U62" s="6"/>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
@@ -4965,13 +4965,15 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62"/>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62"/>
     </row>
     <row r="63" spans="1:31">
       <c r="A63">
@@ -5016,20 +5018,18 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U63" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
+      <c r="U63" s="6"/>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
@@ -5037,13 +5037,15 @@
         <v>0</v>
       </c>
       <c r="AA63">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63"/>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63"/>
     </row>
     <row r="64" spans="1:31">
       <c r="A64">
@@ -5088,20 +5090,18 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U64" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
+      <c r="U64" s="6"/>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
@@ -5109,13 +5109,15 @@
         <v>0</v>
       </c>
       <c r="AA64">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64"/>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64"/>
     </row>
     <row r="65" spans="1:31">
       <c r="A65">
@@ -5160,20 +5162,18 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U65" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
+      <c r="U65" s="6"/>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
@@ -5181,13 +5181,15 @@
         <v>0</v>
       </c>
       <c r="AA65">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65"/>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65"/>
     </row>
     <row r="66" spans="1:31">
       <c r="A66">
@@ -5232,20 +5234,18 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U66" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
+      <c r="U66" s="6"/>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
@@ -5253,13 +5253,15 @@
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66"/>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66"/>
     </row>
     <row r="67" spans="1:31">
       <c r="A67">
@@ -5304,20 +5306,18 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U67" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
+      <c r="U67" s="6"/>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
@@ -5325,13 +5325,15 @@
         <v>0</v>
       </c>
       <c r="AA67">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67"/>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67"/>
     </row>
     <row r="68" spans="1:31">
       <c r="A68">
@@ -5376,20 +5378,18 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U68" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="U68" s="6"/>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
@@ -5397,13 +5397,15 @@
         <v>0</v>
       </c>
       <c r="AA68">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68"/>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68"/>
     </row>
     <row r="69" spans="1:31">
       <c r="A69">
@@ -5448,20 +5450,18 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U69" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
+      <c r="U69" s="6"/>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
@@ -5469,13 +5469,15 @@
         <v>0</v>
       </c>
       <c r="AA69">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69"/>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69"/>
     </row>
     <row r="70" spans="1:31">
       <c r="A70">
@@ -5520,20 +5522,18 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U70" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
+      <c r="U70" s="6"/>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
@@ -5541,13 +5541,15 @@
         <v>0</v>
       </c>
       <c r="AA70">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70"/>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70"/>
     </row>
     <row r="71" spans="1:31">
       <c r="A71">
@@ -5592,20 +5594,18 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
-      <c r="U71" s="6">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
+      <c r="U71" s="6"/>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
@@ -5613,13 +5613,15 @@
         <v>0</v>
       </c>
       <c r="AA71">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71"/>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71"/>
     </row>
     <row r="72" spans="1:31">
       <c r="A72" s="15">
@@ -5664,20 +5666,18 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
-      <c r="U72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
+      <c r="U72" s="5"/>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
@@ -5685,13 +5685,16 @@
         <v>0</v>
       </c>
       <c r="AA72" s="15">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
       <c r="AD72" s="15"/>
+      <c r="AE72"/>
     </row>
     <row r="73" spans="1:31">
       <c r="B73" s="1"/>
@@ -5711,15 +5714,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -5739,15 +5741,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -5767,15 +5768,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -5795,15 +5795,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -5823,15 +5822,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -5851,15 +5849,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -5879,15 +5876,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -5907,15 +5903,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
@@ -5964,19 +5959,19 @@
     <col min="16" max="16" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="17" max="17" width="10.569" bestFit="true" customWidth="true" style="0"/>
     <col min="18" max="18" width="18.71" bestFit="true" customWidth="true" style="0"/>
-    <col min="19" max="19" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="20" max="20" width="6.998" bestFit="true" customWidth="true" style="0"/>
-    <col min="21" max="21" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="22" max="22" width="25.851" bestFit="true" customWidth="true" style="0"/>
-    <col min="23" max="23" width="5.856" bestFit="true" customWidth="true" style="0"/>
-    <col min="24" max="24" width="17.567" bestFit="true" customWidth="true" style="0"/>
-    <col min="25" max="25" width="9.283" bestFit="true" customWidth="true" style="0"/>
-    <col min="26" max="26" width="11.711" bestFit="true" customWidth="true" style="0"/>
+    <col min="19" max="19" width="18.71" bestFit="true" customWidth="true" style="0"/>
+    <col min="20" max="20" width="9.283" bestFit="true" customWidth="true" style="0"/>
+    <col min="21" max="21" width="6.998" bestFit="true" customWidth="true" style="0"/>
+    <col min="22" max="22" width="10.569" bestFit="true" customWidth="true" style="0"/>
+    <col min="23" max="23" width="25.851" bestFit="true" customWidth="true" style="0"/>
+    <col min="24" max="24" width="5.856" bestFit="true" customWidth="true" style="0"/>
+    <col min="25" max="25" width="17.567" bestFit="true" customWidth="true" style="0"/>
+    <col min="26" max="26" width="9.283" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:31">
@@ -5984,7 +5979,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -5996,7 +5991,7 @@
         <v>3</v>
       </c>
       <c r="F2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G2" t="s">
         <v>4</v>
@@ -6008,7 +6003,7 @@
         <v>5</v>
       </c>
       <c r="J2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:31">
@@ -6018,10 +6013,10 @@
       <c r="P4" t="s">
         <v>8</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>9</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -6084,10 +6079,10 @@
         <v>28</v>
       </c>
       <c r="T5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="U5" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="U5" s="3" t="s">
-        <v>29</v>
       </c>
       <c r="V5" s="3" t="s">
         <v>30</v>
@@ -6116,7 +6111,9 @@
       <c r="AD5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="AE5" s="3"/>
+      <c r="AE5" s="3" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6">
@@ -6157,33 +6154,35 @@
       <c r="R6" s="1">
         <v>0</v>
       </c>
-      <c r="S6" s="2"/>
-      <c r="T6" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S6" s="1">
+        <v>0</v>
+      </c>
+      <c r="T6" s="1"/>
       <c r="U6" s="6">
         <v>0.0</v>
       </c>
       <c r="V6" s="1">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2"/>
-      <c r="X6" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W6" s="1">
+        <v>0</v>
+      </c>
+      <c r="X6" s="1"/>
       <c r="Y6" s="1">
         <v>0</v>
       </c>
-      <c r="Z6" s="1"/>
-      <c r="AA6">
-        <v>0.0</v>
-      </c>
+      <c r="Z6" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA6"/>
       <c r="AB6">
         <v>0.0</v>
       </c>
-      <c r="AC6" s="2"/>
-      <c r="AD6" t="s">
-        <v>42</v>
+      <c r="AC6">
+        <v>0.0</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -6225,33 +6224,35 @@
       <c r="R7" s="1">
         <v>0</v>
       </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S7" s="1">
+        <v>0</v>
+      </c>
+      <c r="T7" s="1"/>
       <c r="U7" s="6">
         <v>0.0</v>
       </c>
       <c r="V7" s="1">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2"/>
-      <c r="X7" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W7" s="1">
+        <v>0</v>
+      </c>
+      <c r="X7" s="1"/>
       <c r="Y7" s="1">
         <v>0</v>
       </c>
-      <c r="Z7" s="1"/>
-      <c r="AA7">
-        <v>0.0</v>
-      </c>
+      <c r="Z7" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA7"/>
       <c r="AB7">
         <v>0.0</v>
       </c>
-      <c r="AC7" s="2"/>
-      <c r="AD7" t="s">
-        <v>42</v>
+      <c r="AC7">
+        <v>0.0</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:31">
@@ -6293,33 +6294,35 @@
       <c r="R8" s="1">
         <v>0</v>
       </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S8" s="1">
+        <v>0</v>
+      </c>
+      <c r="T8" s="1"/>
       <c r="U8" s="6">
         <v>0.0</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2"/>
-      <c r="X8" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W8" s="1">
+        <v>0</v>
+      </c>
+      <c r="X8" s="1"/>
       <c r="Y8" s="1">
         <v>0</v>
       </c>
-      <c r="Z8" s="1"/>
-      <c r="AA8">
-        <v>0.0</v>
-      </c>
+      <c r="Z8" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA8"/>
       <c r="AB8">
         <v>0.0</v>
       </c>
-      <c r="AC8" s="2"/>
-      <c r="AD8" t="s">
-        <v>42</v>
+      <c r="AC8">
+        <v>0.0</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:31">
@@ -6361,33 +6364,35 @@
       <c r="R9" s="1">
         <v>0</v>
       </c>
-      <c r="S9" s="2"/>
-      <c r="T9" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S9" s="1">
+        <v>0</v>
+      </c>
+      <c r="T9" s="1"/>
       <c r="U9" s="6">
         <v>0.0</v>
       </c>
       <c r="V9" s="1">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2"/>
-      <c r="X9" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W9" s="1">
+        <v>0</v>
+      </c>
+      <c r="X9" s="1"/>
       <c r="Y9" s="1">
         <v>0</v>
       </c>
-      <c r="Z9" s="1"/>
-      <c r="AA9">
-        <v>0.0</v>
-      </c>
+      <c r="Z9" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA9"/>
       <c r="AB9">
         <v>0.0</v>
       </c>
-      <c r="AC9" s="2"/>
-      <c r="AD9" t="s">
-        <v>42</v>
+      <c r="AC9">
+        <v>0.0</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:31">
@@ -6429,33 +6434,35 @@
       <c r="R10" s="1">
         <v>0</v>
       </c>
-      <c r="S10" s="2"/>
-      <c r="T10" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S10" s="1">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1"/>
       <c r="U10" s="6">
         <v>0.0</v>
       </c>
       <c r="V10" s="1">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2"/>
-      <c r="X10" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1"/>
       <c r="Y10" s="1">
         <v>0</v>
       </c>
-      <c r="Z10" s="1"/>
-      <c r="AA10">
-        <v>0.0</v>
-      </c>
+      <c r="Z10" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA10"/>
       <c r="AB10">
         <v>0.0</v>
       </c>
-      <c r="AC10" s="2"/>
-      <c r="AD10" t="s">
-        <v>42</v>
+      <c r="AC10">
+        <v>0.0</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:31">
@@ -6497,33 +6504,35 @@
       <c r="R11" s="1">
         <v>0</v>
       </c>
-      <c r="S11" s="2"/>
-      <c r="T11" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S11" s="1">
+        <v>0</v>
+      </c>
+      <c r="T11" s="1"/>
       <c r="U11" s="6">
         <v>0.0</v>
       </c>
       <c r="V11" s="1">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2"/>
-      <c r="X11" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1"/>
       <c r="Y11" s="1">
         <v>0</v>
       </c>
-      <c r="Z11" s="1"/>
-      <c r="AA11">
-        <v>0.0</v>
-      </c>
+      <c r="Z11" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA11"/>
       <c r="AB11">
         <v>0.0</v>
       </c>
-      <c r="AC11" s="2"/>
-      <c r="AD11" t="s">
-        <v>42</v>
+      <c r="AC11">
+        <v>0.0</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:31">
@@ -6565,33 +6574,35 @@
       <c r="R12" s="1">
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S12" s="1">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1"/>
       <c r="U12" s="6">
         <v>0.0</v>
       </c>
       <c r="V12" s="1">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2"/>
-      <c r="X12" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W12" s="1">
+        <v>0</v>
+      </c>
+      <c r="X12" s="1"/>
       <c r="Y12" s="1">
         <v>0</v>
       </c>
-      <c r="Z12" s="1"/>
-      <c r="AA12">
-        <v>0.0</v>
-      </c>
+      <c r="Z12" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA12"/>
       <c r="AB12">
         <v>0.0</v>
       </c>
-      <c r="AC12" s="2"/>
-      <c r="AD12" t="s">
-        <v>42</v>
+      <c r="AC12">
+        <v>0.0</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:31">
@@ -6633,33 +6644,35 @@
       <c r="R13" s="1">
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
-      <c r="T13" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S13" s="1">
+        <v>0</v>
+      </c>
+      <c r="T13" s="1"/>
       <c r="U13" s="6">
         <v>0.0</v>
       </c>
       <c r="V13" s="1">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2"/>
-      <c r="X13" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W13" s="1">
+        <v>0</v>
+      </c>
+      <c r="X13" s="1"/>
       <c r="Y13" s="1">
         <v>0</v>
       </c>
-      <c r="Z13" s="1"/>
-      <c r="AA13">
-        <v>0.0</v>
-      </c>
+      <c r="Z13" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA13"/>
       <c r="AB13">
         <v>0.0</v>
       </c>
-      <c r="AC13" s="2"/>
-      <c r="AD13" t="s">
-        <v>42</v>
+      <c r="AC13">
+        <v>0.0</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:31">
@@ -6701,33 +6714,35 @@
       <c r="R14" s="1">
         <v>0</v>
       </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S14" s="1">
+        <v>0</v>
+      </c>
+      <c r="T14" s="1"/>
       <c r="U14" s="6">
         <v>0.0</v>
       </c>
       <c r="V14" s="1">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2"/>
-      <c r="X14" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1"/>
       <c r="Y14" s="1">
         <v>0</v>
       </c>
-      <c r="Z14" s="1"/>
-      <c r="AA14">
-        <v>0.0</v>
-      </c>
+      <c r="Z14" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA14"/>
       <c r="AB14">
         <v>0.0</v>
       </c>
-      <c r="AC14" s="2"/>
-      <c r="AD14" t="s">
-        <v>42</v>
+      <c r="AC14">
+        <v>0.0</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:31">
@@ -6769,33 +6784,35 @@
       <c r="R15" s="1">
         <v>0</v>
       </c>
-      <c r="S15" s="2"/>
-      <c r="T15" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S15" s="1">
+        <v>0</v>
+      </c>
+      <c r="T15" s="1"/>
       <c r="U15" s="6">
         <v>0.0</v>
       </c>
       <c r="V15" s="1">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2"/>
-      <c r="X15" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1"/>
       <c r="Y15" s="1">
         <v>0</v>
       </c>
-      <c r="Z15" s="1"/>
-      <c r="AA15">
-        <v>0.0</v>
-      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15"/>
       <c r="AB15">
         <v>0.0</v>
       </c>
-      <c r="AC15" s="2"/>
-      <c r="AD15" t="s">
-        <v>42</v>
+      <c r="AC15">
+        <v>0.0</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:31">
@@ -6837,33 +6854,35 @@
       <c r="R16" s="1">
         <v>0</v>
       </c>
-      <c r="S16" s="2"/>
-      <c r="T16" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S16" s="1">
+        <v>0</v>
+      </c>
+      <c r="T16" s="1"/>
       <c r="U16" s="6">
         <v>0.0</v>
       </c>
       <c r="V16" s="1">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2"/>
-      <c r="X16" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>0</v>
+      </c>
+      <c r="X16" s="1"/>
       <c r="Y16" s="1">
         <v>0</v>
       </c>
-      <c r="Z16" s="1"/>
-      <c r="AA16">
-        <v>0.0</v>
-      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16"/>
       <c r="AB16">
         <v>0.0</v>
       </c>
-      <c r="AC16" s="2"/>
-      <c r="AD16" t="s">
-        <v>42</v>
+      <c r="AC16">
+        <v>0.0</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:31">
@@ -6905,33 +6924,35 @@
       <c r="R17" s="1">
         <v>0</v>
       </c>
-      <c r="S17" s="2"/>
-      <c r="T17" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S17" s="1">
+        <v>0</v>
+      </c>
+      <c r="T17" s="1"/>
       <c r="U17" s="6">
         <v>0.0</v>
       </c>
       <c r="V17" s="1">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2"/>
-      <c r="X17" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1"/>
       <c r="Y17" s="1">
         <v>0</v>
       </c>
-      <c r="Z17" s="1"/>
-      <c r="AA17">
-        <v>0.0</v>
-      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17"/>
       <c r="AB17">
         <v>0.0</v>
       </c>
-      <c r="AC17" s="2"/>
-      <c r="AD17" t="s">
-        <v>42</v>
+      <c r="AC17">
+        <v>0.0</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -6973,33 +6994,35 @@
       <c r="R18" s="1">
         <v>0</v>
       </c>
-      <c r="S18" s="2"/>
-      <c r="T18" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S18" s="1">
+        <v>0</v>
+      </c>
+      <c r="T18" s="1"/>
       <c r="U18" s="6">
         <v>0.0</v>
       </c>
       <c r="V18" s="1">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2"/>
-      <c r="X18" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W18" s="1">
+        <v>0</v>
+      </c>
+      <c r="X18" s="1"/>
       <c r="Y18" s="1">
         <v>0</v>
       </c>
-      <c r="Z18" s="1"/>
-      <c r="AA18">
-        <v>0.0</v>
-      </c>
+      <c r="Z18" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA18"/>
       <c r="AB18">
         <v>0.0</v>
       </c>
-      <c r="AC18" s="2"/>
-      <c r="AD18" t="s">
-        <v>42</v>
+      <c r="AC18">
+        <v>0.0</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:31">
@@ -7041,33 +7064,35 @@
       <c r="R19" s="1">
         <v>0</v>
       </c>
-      <c r="S19" s="2"/>
-      <c r="T19" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S19" s="1">
+        <v>0</v>
+      </c>
+      <c r="T19" s="1"/>
       <c r="U19" s="6">
         <v>0.0</v>
       </c>
       <c r="V19" s="1">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2"/>
-      <c r="X19" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W19" s="1">
+        <v>0</v>
+      </c>
+      <c r="X19" s="1"/>
       <c r="Y19" s="1">
         <v>0</v>
       </c>
-      <c r="Z19" s="1"/>
-      <c r="AA19">
-        <v>0.0</v>
-      </c>
+      <c r="Z19" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA19"/>
       <c r="AB19">
         <v>0.0</v>
       </c>
-      <c r="AC19" s="2"/>
-      <c r="AD19" t="s">
-        <v>42</v>
+      <c r="AC19">
+        <v>0.0</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:31">
@@ -7109,33 +7134,35 @@
       <c r="R20" s="1">
         <v>0</v>
       </c>
-      <c r="S20" s="2"/>
-      <c r="T20" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S20" s="1">
+        <v>0</v>
+      </c>
+      <c r="T20" s="1"/>
       <c r="U20" s="6">
         <v>0.0</v>
       </c>
       <c r="V20" s="1">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2"/>
-      <c r="X20" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W20" s="1">
+        <v>0</v>
+      </c>
+      <c r="X20" s="1"/>
       <c r="Y20" s="1">
         <v>0</v>
       </c>
-      <c r="Z20" s="1"/>
-      <c r="AA20">
-        <v>0.0</v>
-      </c>
+      <c r="Z20" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA20"/>
       <c r="AB20">
         <v>0.0</v>
       </c>
-      <c r="AC20" s="2"/>
-      <c r="AD20" t="s">
-        <v>42</v>
+      <c r="AC20">
+        <v>0.0</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:31">
@@ -7177,33 +7204,35 @@
       <c r="R21" s="1">
         <v>0</v>
       </c>
-      <c r="S21" s="2"/>
-      <c r="T21" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S21" s="1">
+        <v>0</v>
+      </c>
+      <c r="T21" s="1"/>
       <c r="U21" s="6">
         <v>0.0</v>
       </c>
       <c r="V21" s="1">
-        <v>0</v>
-      </c>
-      <c r="W21" s="2"/>
-      <c r="X21" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W21" s="1">
+        <v>0</v>
+      </c>
+      <c r="X21" s="1"/>
       <c r="Y21" s="1">
         <v>0</v>
       </c>
-      <c r="Z21" s="1"/>
-      <c r="AA21">
-        <v>0.0</v>
-      </c>
+      <c r="Z21" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA21"/>
       <c r="AB21">
         <v>0.0</v>
       </c>
-      <c r="AC21" s="2"/>
-      <c r="AD21" t="s">
-        <v>42</v>
+      <c r="AC21">
+        <v>0.0</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:31">
@@ -7249,33 +7278,35 @@
       <c r="R22" s="1">
         <v>0</v>
       </c>
-      <c r="S22" s="2"/>
-      <c r="T22" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S22" s="1">
+        <v>0</v>
+      </c>
+      <c r="T22" s="1"/>
       <c r="U22" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V22" s="1">
         <v>-25404.0</v>
       </c>
-      <c r="V22" s="1">
-        <v>0</v>
-      </c>
-      <c r="W22" s="2"/>
-      <c r="X22" s="1">
+      <c r="W22" s="1">
+        <v>0</v>
+      </c>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1">
         <v>21192</v>
       </c>
-      <c r="Y22" s="1">
+      <c r="Z22" s="1">
         <v>105960</v>
       </c>
-      <c r="Z22" s="1"/>
-      <c r="AA22">
-        <v>0.0</v>
-      </c>
+      <c r="AA22"/>
       <c r="AB22">
+        <v>0.0</v>
+      </c>
+      <c r="AC22">
         <v>-25404.0</v>
       </c>
-      <c r="AC22" s="2"/>
-      <c r="AD22" t="s">
-        <v>43</v>
+      <c r="AE22" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:31">
@@ -7321,33 +7352,35 @@
       <c r="R23" s="1">
         <v>0</v>
       </c>
-      <c r="S23" s="2"/>
-      <c r="T23" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S23" s="1">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1"/>
       <c r="U23" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V23" s="1">
         <v>-27944.5</v>
       </c>
-      <c r="V23" s="1">
-        <v>0</v>
-      </c>
-      <c r="W23" s="2"/>
-      <c r="X23" s="1">
+      <c r="W23" s="1">
+        <v>0</v>
+      </c>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1">
         <v>23311</v>
       </c>
-      <c r="Y23" s="1">
+      <c r="Z23" s="1">
         <v>116555</v>
       </c>
-      <c r="Z23" s="1"/>
-      <c r="AA23">
-        <v>0.0</v>
-      </c>
+      <c r="AA23"/>
       <c r="AB23">
+        <v>0.0</v>
+      </c>
+      <c r="AC23">
         <v>-27945.0</v>
       </c>
-      <c r="AC23" s="2"/>
-      <c r="AD23" t="s">
-        <v>44</v>
+      <c r="AE23" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:31">
@@ -7393,33 +7426,35 @@
       <c r="R24" s="1">
         <v>0</v>
       </c>
-      <c r="S24" s="2"/>
-      <c r="T24" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S24" s="1">
+        <v>0</v>
+      </c>
+      <c r="T24" s="1"/>
       <c r="U24" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V24" s="1">
         <v>-30739.0</v>
       </c>
-      <c r="V24" s="1">
-        <v>0</v>
-      </c>
-      <c r="W24" s="2"/>
-      <c r="X24" s="1">
+      <c r="W24" s="1">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1">
         <v>25642</v>
       </c>
-      <c r="Y24" s="1">
+      <c r="Z24" s="1">
         <v>128210</v>
       </c>
-      <c r="Z24" s="1"/>
-      <c r="AA24">
-        <v>0.0</v>
-      </c>
+      <c r="AA24"/>
       <c r="AB24">
+        <v>0.0</v>
+      </c>
+      <c r="AC24">
         <v>-30739.0</v>
       </c>
-      <c r="AC24" s="2"/>
-      <c r="AD24" t="s">
-        <v>45</v>
+      <c r="AE24" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="25" spans="1:31">
@@ -7465,33 +7500,35 @@
       <c r="R25" s="1">
         <v>0</v>
       </c>
-      <c r="S25" s="2"/>
-      <c r="T25" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S25" s="1">
+        <v>0</v>
+      </c>
+      <c r="T25" s="1"/>
       <c r="U25" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V25" s="1">
         <v>-33813.0</v>
       </c>
-      <c r="V25" s="1">
-        <v>0</v>
-      </c>
-      <c r="W25" s="2"/>
-      <c r="X25" s="1">
+      <c r="W25" s="1">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1">
         <v>28206</v>
       </c>
-      <c r="Y25" s="1">
+      <c r="Z25" s="1">
         <v>141030</v>
       </c>
-      <c r="Z25" s="1"/>
-      <c r="AA25">
-        <v>0.0</v>
-      </c>
+      <c r="AA25"/>
       <c r="AB25">
+        <v>0.0</v>
+      </c>
+      <c r="AC25">
         <v>-33813.0</v>
       </c>
-      <c r="AC25" s="2"/>
-      <c r="AD25" t="s">
-        <v>46</v>
+      <c r="AE25" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:31">
@@ -7537,33 +7574,35 @@
       <c r="R26" s="1">
         <v>0</v>
       </c>
-      <c r="S26" s="2"/>
-      <c r="T26" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1"/>
       <c r="U26" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V26" s="1">
         <v>-37194.0</v>
       </c>
-      <c r="V26" s="1">
-        <v>0</v>
-      </c>
-      <c r="W26" s="2"/>
-      <c r="X26" s="1">
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1">
         <v>31026</v>
       </c>
-      <c r="Y26" s="1">
+      <c r="Z26" s="1">
         <v>155130</v>
       </c>
-      <c r="Z26" s="1"/>
-      <c r="AA26">
-        <v>0.0</v>
-      </c>
+      <c r="AA26"/>
       <c r="AB26">
+        <v>0.0</v>
+      </c>
+      <c r="AC26">
         <v>-37195.0</v>
       </c>
-      <c r="AC26" s="2"/>
-      <c r="AD26" t="s">
-        <v>47</v>
+      <c r="AE26" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:31">
@@ -7609,33 +7648,35 @@
       <c r="R27" s="1">
         <v>0</v>
       </c>
-      <c r="S27" s="2"/>
-      <c r="T27" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S27" s="1">
+        <v>0</v>
+      </c>
+      <c r="T27" s="1"/>
       <c r="U27" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V27" s="1">
         <v>-40914.0</v>
       </c>
-      <c r="V27" s="1">
-        <v>0</v>
-      </c>
-      <c r="W27" s="2"/>
-      <c r="X27" s="1">
+      <c r="W27" s="1">
+        <v>0</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1">
         <v>34128</v>
       </c>
-      <c r="Y27" s="1">
+      <c r="Z27" s="1">
         <v>170640</v>
       </c>
-      <c r="Z27" s="1"/>
-      <c r="AA27">
-        <v>0.0</v>
-      </c>
+      <c r="AA27"/>
       <c r="AB27">
+        <v>0.0</v>
+      </c>
+      <c r="AC27">
         <v>-40914.0</v>
       </c>
-      <c r="AC27" s="2"/>
-      <c r="AD27" t="s">
-        <v>48</v>
+      <c r="AE27" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="28" spans="1:31">
@@ -7681,33 +7722,35 @@
       <c r="R28" s="1">
         <v>0</v>
       </c>
-      <c r="S28" s="2"/>
-      <c r="T28" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S28" s="1">
+        <v>0</v>
+      </c>
+      <c r="T28" s="1"/>
       <c r="U28" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V28" s="1">
         <v>-55916.0</v>
       </c>
-      <c r="V28" s="1">
-        <v>0</v>
-      </c>
-      <c r="W28" s="2"/>
-      <c r="X28" s="1">
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1">
         <v>15720</v>
       </c>
-      <c r="Y28" s="1">
+      <c r="Z28" s="1">
         <v>78600</v>
       </c>
-      <c r="Z28" s="1"/>
-      <c r="AA28">
-        <v>0.0</v>
-      </c>
+      <c r="AA28"/>
       <c r="AB28">
+        <v>0.0</v>
+      </c>
+      <c r="AC28">
         <v>-55916.0</v>
       </c>
-      <c r="AC28" s="2"/>
-      <c r="AD28" t="s">
-        <v>49</v>
+      <c r="AE28" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:31">
@@ -7753,33 +7796,35 @@
       <c r="R29" s="1">
         <v>0</v>
       </c>
-      <c r="S29" s="2"/>
-      <c r="T29" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S29" s="1">
+        <v>0</v>
+      </c>
+      <c r="T29" s="1"/>
       <c r="U29" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V29" s="1">
         <v>-61507.0</v>
       </c>
-      <c r="V29" s="1">
-        <v>0</v>
-      </c>
-      <c r="W29" s="2"/>
-      <c r="X29" s="1">
+      <c r="W29" s="1">
+        <v>0</v>
+      </c>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1">
         <v>17292</v>
       </c>
-      <c r="Y29" s="1">
+      <c r="Z29" s="1">
         <v>86460</v>
       </c>
-      <c r="Z29" s="1"/>
-      <c r="AA29">
-        <v>0.0</v>
-      </c>
+      <c r="AA29"/>
       <c r="AB29">
+        <v>0.0</v>
+      </c>
+      <c r="AC29">
         <v>-61508.0</v>
       </c>
-      <c r="AC29" s="2"/>
-      <c r="AD29" t="s">
-        <v>50</v>
+      <c r="AE29" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:31">
@@ -7825,33 +7870,35 @@
       <c r="R30" s="1">
         <v>0</v>
       </c>
-      <c r="S30" s="2"/>
-      <c r="T30" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S30" s="1">
+        <v>0</v>
+      </c>
+      <c r="T30" s="1"/>
       <c r="U30" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V30" s="1">
         <v>-67658.5</v>
       </c>
-      <c r="V30" s="1">
-        <v>0</v>
-      </c>
-      <c r="W30" s="2"/>
-      <c r="X30" s="1">
+      <c r="W30" s="1">
+        <v>0</v>
+      </c>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1">
         <v>19021</v>
       </c>
-      <c r="Y30" s="1">
+      <c r="Z30" s="1">
         <v>95105</v>
       </c>
-      <c r="Z30" s="1"/>
-      <c r="AA30">
-        <v>0.0</v>
-      </c>
+      <c r="AA30"/>
       <c r="AB30">
+        <v>0.0</v>
+      </c>
+      <c r="AC30">
         <v>-67659.0</v>
       </c>
-      <c r="AC30" s="2"/>
-      <c r="AD30" t="s">
-        <v>51</v>
+      <c r="AE30" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:31">
@@ -7897,33 +7944,35 @@
       <c r="R31" s="1">
         <v>0</v>
       </c>
-      <c r="S31" s="2"/>
-      <c r="T31" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S31" s="1">
+        <v>0</v>
+      </c>
+      <c r="T31" s="1"/>
       <c r="U31" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="1">
         <v>-74424.5</v>
       </c>
-      <c r="V31" s="1">
-        <v>0</v>
-      </c>
-      <c r="W31" s="2"/>
-      <c r="X31" s="1">
+      <c r="W31" s="1">
+        <v>0</v>
+      </c>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1">
         <v>20923</v>
       </c>
-      <c r="Y31" s="1">
+      <c r="Z31" s="1">
         <v>104615</v>
       </c>
-      <c r="Z31" s="1"/>
-      <c r="AA31">
-        <v>0.0</v>
-      </c>
+      <c r="AA31"/>
       <c r="AB31">
+        <v>0.0</v>
+      </c>
+      <c r="AC31">
         <v>-74425.0</v>
       </c>
-      <c r="AC31" s="2"/>
-      <c r="AD31" t="s">
-        <v>52</v>
+      <c r="AE31" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:31">
@@ -7969,33 +8018,35 @@
       <c r="R32" s="1">
         <v>0</v>
       </c>
-      <c r="S32" s="2"/>
-      <c r="T32" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S32" s="1">
+        <v>0</v>
+      </c>
+      <c r="T32" s="1"/>
       <c r="U32" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="1">
         <v>-81866.5</v>
       </c>
-      <c r="V32" s="1">
-        <v>0</v>
-      </c>
-      <c r="W32" s="2"/>
-      <c r="X32" s="1">
+      <c r="W32" s="1">
+        <v>0</v>
+      </c>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1">
         <v>23015</v>
       </c>
-      <c r="Y32" s="1">
+      <c r="Z32" s="1">
         <v>115075</v>
       </c>
-      <c r="Z32" s="1"/>
-      <c r="AA32">
-        <v>0.0</v>
-      </c>
+      <c r="AA32"/>
       <c r="AB32">
+        <v>0.0</v>
+      </c>
+      <c r="AC32">
         <v>-81867.0</v>
       </c>
-      <c r="AC32" s="2"/>
-      <c r="AD32" t="s">
-        <v>53</v>
+      <c r="AE32" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="33" spans="1:31">
@@ -8041,33 +8092,35 @@
       <c r="R33" s="1">
         <v>0</v>
       </c>
-      <c r="S33" s="2"/>
-      <c r="T33" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S33" s="1">
+        <v>0</v>
+      </c>
+      <c r="T33" s="1"/>
       <c r="U33" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V33" s="1">
         <v>-90054.0</v>
       </c>
-      <c r="V33" s="1">
-        <v>0</v>
-      </c>
-      <c r="W33" s="2"/>
-      <c r="X33" s="1">
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1">
         <v>25316</v>
       </c>
-      <c r="Y33" s="1">
+      <c r="Z33" s="1">
         <v>126580</v>
       </c>
-      <c r="Z33" s="1"/>
-      <c r="AA33">
-        <v>0.0</v>
-      </c>
+      <c r="AA33"/>
       <c r="AB33">
+        <v>0.0</v>
+      </c>
+      <c r="AC33">
         <v>-90054.0</v>
       </c>
-      <c r="AC33" s="2"/>
-      <c r="AD33" t="s">
-        <v>54</v>
+      <c r="AE33" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:31">
@@ -8113,33 +8166,35 @@
       <c r="R34" s="1">
         <v>0</v>
       </c>
-      <c r="S34" s="2"/>
-      <c r="T34" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S34" s="1">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1"/>
       <c r="U34" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V34" s="1">
         <v>-99059.5</v>
       </c>
-      <c r="V34" s="1">
-        <v>0</v>
-      </c>
-      <c r="W34" s="2"/>
-      <c r="X34" s="1">
+      <c r="W34" s="1">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1">
         <v>27847</v>
       </c>
-      <c r="Y34" s="1">
+      <c r="Z34" s="1">
         <v>139235</v>
       </c>
-      <c r="Z34" s="1"/>
-      <c r="AA34">
-        <v>0.0</v>
-      </c>
+      <c r="AA34"/>
       <c r="AB34">
+        <v>0.0</v>
+      </c>
+      <c r="AC34">
         <v>-99060.0</v>
       </c>
-      <c r="AC34" s="2"/>
-      <c r="AD34" t="s">
-        <v>55</v>
+      <c r="AE34" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:31">
@@ -8185,33 +8240,35 @@
       <c r="R35" s="1">
         <v>0</v>
       </c>
-      <c r="S35" s="2"/>
-      <c r="T35" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S35" s="1">
+        <v>0</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V35" s="1">
         <v>-108965.5</v>
       </c>
-      <c r="V35" s="1">
-        <v>0</v>
-      </c>
-      <c r="W35" s="2"/>
-      <c r="X35" s="1">
+      <c r="W35" s="1">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1">
         <v>30631</v>
       </c>
-      <c r="Y35" s="1">
+      <c r="Z35" s="1">
         <v>153155</v>
       </c>
-      <c r="Z35" s="1"/>
-      <c r="AA35">
-        <v>0.0</v>
-      </c>
+      <c r="AA35"/>
       <c r="AB35">
+        <v>0.0</v>
+      </c>
+      <c r="AC35">
         <v>-108966.0</v>
       </c>
-      <c r="AC35" s="2"/>
-      <c r="AD35" t="s">
-        <v>56</v>
+      <c r="AE35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:31">
@@ -8257,33 +8314,35 @@
       <c r="R36" s="1">
         <v>0</v>
       </c>
-      <c r="S36" s="2"/>
-      <c r="T36" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S36" s="1">
+        <v>0</v>
+      </c>
+      <c r="T36" s="1"/>
       <c r="U36" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V36" s="1">
         <v>-119862.0</v>
       </c>
-      <c r="V36" s="1">
-        <v>0</v>
-      </c>
-      <c r="W36" s="2"/>
-      <c r="X36" s="1">
+      <c r="W36" s="1">
+        <v>0</v>
+      </c>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1">
         <v>33694</v>
       </c>
-      <c r="Y36" s="1">
+      <c r="Z36" s="1">
         <v>168470</v>
       </c>
-      <c r="Z36" s="1"/>
-      <c r="AA36">
-        <v>0.0</v>
-      </c>
+      <c r="AA36"/>
       <c r="AB36">
+        <v>0.0</v>
+      </c>
+      <c r="AC36">
         <v>-119863.0</v>
       </c>
-      <c r="AC36" s="2"/>
-      <c r="AD36" t="s">
-        <v>57</v>
+      <c r="AE36" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="37" spans="1:31">
@@ -8329,33 +8388,35 @@
       <c r="R37" s="1">
         <v>0</v>
       </c>
-      <c r="S37" s="2"/>
-      <c r="T37" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S37" s="1">
+        <v>0</v>
+      </c>
+      <c r="T37" s="1"/>
       <c r="U37" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V37" s="1">
         <v>-131848.5</v>
       </c>
-      <c r="V37" s="1">
-        <v>0</v>
-      </c>
-      <c r="W37" s="2"/>
-      <c r="X37" s="1">
+      <c r="W37" s="1">
+        <v>0</v>
+      </c>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1">
         <v>37063</v>
       </c>
-      <c r="Y37" s="1">
+      <c r="Z37" s="1">
         <v>185315</v>
       </c>
-      <c r="Z37" s="1"/>
-      <c r="AA37">
-        <v>0.0</v>
-      </c>
+      <c r="AA37"/>
       <c r="AB37">
+        <v>0.0</v>
+      </c>
+      <c r="AC37">
         <v>-131849.0</v>
       </c>
-      <c r="AC37" s="2"/>
-      <c r="AD37" t="s">
-        <v>58</v>
+      <c r="AE37" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="38" spans="1:31">
@@ -8401,33 +8462,36 @@
       <c r="R38" s="8">
         <v>0</v>
       </c>
-      <c r="S38" s="9"/>
-      <c r="T38" s="8">
-        <v>0.0</v>
-      </c>
+      <c r="S38" s="8">
+        <v>0</v>
+      </c>
+      <c r="T38" s="8"/>
       <c r="U38" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="V38" s="8">
         <v>-145034.5</v>
       </c>
-      <c r="V38" s="8">
-        <v>0</v>
-      </c>
-      <c r="W38" s="9"/>
-      <c r="X38" s="8">
+      <c r="W38" s="8">
+        <v>0</v>
+      </c>
+      <c r="X38" s="8"/>
+      <c r="Y38" s="8">
         <v>40769</v>
       </c>
-      <c r="Y38" s="8">
+      <c r="Z38" s="8">
         <v>203845</v>
       </c>
-      <c r="Z38" s="8"/>
-      <c r="AA38" s="7">
-        <v>0.0</v>
-      </c>
+      <c r="AA38" s="7"/>
       <c r="AB38" s="7">
+        <v>0.0</v>
+      </c>
+      <c r="AC38" s="7">
         <v>-145035.0</v>
       </c>
-      <c r="AC38" s="9"/>
-      <c r="AD38" s="7" t="s">
-        <v>59</v>
+      <c r="AD38" s="7"/>
+      <c r="AE38" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:31">
@@ -8473,33 +8537,35 @@
       <c r="R39" s="1">
         <v>0</v>
       </c>
-      <c r="S39" s="2"/>
-      <c r="T39" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S39" s="1">
+        <v>0</v>
+      </c>
+      <c r="T39" s="1"/>
       <c r="U39" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V39" s="1">
         <v>-174100.0</v>
       </c>
-      <c r="V39" s="1">
-        <v>0</v>
-      </c>
-      <c r="W39" s="2"/>
-      <c r="X39" s="1">
+      <c r="W39" s="1">
+        <v>0</v>
+      </c>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1">
         <v>15720</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Z39" s="1">
         <v>78600</v>
       </c>
-      <c r="Z39" s="1"/>
-      <c r="AA39">
-        <v>0.0</v>
-      </c>
+      <c r="AA39"/>
       <c r="AB39">
+        <v>0.0</v>
+      </c>
+      <c r="AC39">
         <v>-174101.0</v>
       </c>
-      <c r="AC39" s="2"/>
-      <c r="AD39" t="s">
-        <v>60</v>
+      <c r="AE39" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:31">
@@ -8543,33 +8609,36 @@
       <c r="R40" s="11">
         <v>0</v>
       </c>
-      <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <v>0.0</v>
-      </c>
+      <c r="S40" s="11">
+        <v>0</v>
+      </c>
+      <c r="T40" s="11"/>
       <c r="U40" s="11">
+        <v>0.0</v>
+      </c>
+      <c r="V40" s="11">
         <v>-200157.0</v>
       </c>
-      <c r="V40" s="11">
-        <v>0</v>
-      </c>
-      <c r="W40" s="12"/>
-      <c r="X40" s="11">
-        <v>0</v>
-      </c>
+      <c r="W40" s="11">
+        <v>0</v>
+      </c>
+      <c r="X40" s="11"/>
       <c r="Y40" s="11">
         <v>0</v>
       </c>
-      <c r="Z40" s="11"/>
-      <c r="AA40" s="10">
-        <v>0.0</v>
-      </c>
+      <c r="Z40" s="11">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="10"/>
       <c r="AB40" s="10">
+        <v>0.0</v>
+      </c>
+      <c r="AC40" s="10">
         <v>-200157.0</v>
       </c>
-      <c r="AC40" s="12"/>
-      <c r="AD40" s="10" t="s">
-        <v>61</v>
+      <c r="AD40" s="10"/>
+      <c r="AE40" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="41" spans="1:31">
@@ -8613,33 +8682,35 @@
       <c r="R41" s="1">
         <v>0</v>
       </c>
-      <c r="S41" s="2"/>
-      <c r="T41" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S41" s="1">
+        <v>0</v>
+      </c>
+      <c r="T41" s="1"/>
       <c r="U41" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V41" s="1">
         <v>-220172.0</v>
       </c>
-      <c r="V41" s="1">
-        <v>0</v>
-      </c>
-      <c r="W41" s="2"/>
-      <c r="X41" s="1">
-        <v>0</v>
-      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1"/>
       <c r="Y41" s="1">
         <v>0</v>
       </c>
-      <c r="Z41" s="1"/>
-      <c r="AA41">
-        <v>0.0</v>
-      </c>
+      <c r="Z41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA41"/>
       <c r="AB41">
+        <v>0.0</v>
+      </c>
+      <c r="AC41">
         <v>-220173.0</v>
       </c>
-      <c r="AC41" s="2"/>
-      <c r="AD41" t="s">
-        <v>62</v>
+      <c r="AE41" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="42" spans="1:31">
@@ -8683,33 +8754,35 @@
       <c r="R42" s="1">
         <v>0</v>
       </c>
-      <c r="S42" s="2"/>
-      <c r="T42" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S42" s="1">
+        <v>0</v>
+      </c>
+      <c r="T42" s="1"/>
       <c r="U42" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V42" s="1">
         <v>-242189.0</v>
       </c>
-      <c r="V42" s="1">
-        <v>0</v>
-      </c>
-      <c r="W42" s="2"/>
-      <c r="X42" s="1">
-        <v>0</v>
-      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1"/>
       <c r="Y42" s="1">
         <v>0</v>
       </c>
-      <c r="Z42" s="1"/>
-      <c r="AA42">
-        <v>0.0</v>
-      </c>
+      <c r="Z42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA42"/>
       <c r="AB42">
+        <v>0.0</v>
+      </c>
+      <c r="AC42">
         <v>-242190.0</v>
       </c>
-      <c r="AC42" s="2"/>
-      <c r="AD42" t="s">
-        <v>63</v>
+      <c r="AE42" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="43" spans="1:31">
@@ -8753,33 +8826,35 @@
       <c r="R43" s="1">
         <v>0</v>
       </c>
-      <c r="S43" s="2"/>
-      <c r="T43" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S43" s="1">
+        <v>0</v>
+      </c>
+      <c r="T43" s="1"/>
       <c r="U43" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V43" s="1">
         <v>-266408.0</v>
       </c>
-      <c r="V43" s="1">
-        <v>0</v>
-      </c>
-      <c r="W43" s="2"/>
-      <c r="X43" s="1">
-        <v>0</v>
-      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1"/>
       <c r="Y43" s="1">
         <v>0</v>
       </c>
-      <c r="Z43" s="1"/>
-      <c r="AA43">
-        <v>0.0</v>
-      </c>
+      <c r="Z43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA43"/>
       <c r="AB43">
+        <v>0.0</v>
+      </c>
+      <c r="AC43">
         <v>-266409.0</v>
       </c>
-      <c r="AC43" s="2"/>
-      <c r="AD43" t="s">
-        <v>64</v>
+      <c r="AE43" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="44" spans="1:31">
@@ -8823,33 +8898,35 @@
       <c r="R44" s="1">
         <v>0</v>
       </c>
-      <c r="S44" s="2"/>
-      <c r="T44" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S44" s="1">
+        <v>0</v>
+      </c>
+      <c r="T44" s="1"/>
       <c r="U44" s="6">
+        <v>0.0</v>
+      </c>
+      <c r="V44" s="1">
         <v>-293049.0</v>
       </c>
-      <c r="V44" s="1">
-        <v>0</v>
-      </c>
-      <c r="W44" s="2"/>
-      <c r="X44" s="1">
-        <v>0</v>
-      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1"/>
       <c r="Y44" s="1">
         <v>0</v>
       </c>
-      <c r="Z44" s="1"/>
-      <c r="AA44">
-        <v>0.0</v>
-      </c>
+      <c r="Z44" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA44"/>
       <c r="AB44">
+        <v>0.0</v>
+      </c>
+      <c r="AC44">
         <v>-293050.0</v>
       </c>
-      <c r="AC44" s="2"/>
-      <c r="AD44" t="s">
-        <v>65</v>
+      <c r="AE44" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:31">
@@ -8891,33 +8968,35 @@
       <c r="R45" s="1">
         <v>0</v>
       </c>
-      <c r="S45" s="2"/>
-      <c r="T45" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1"/>
       <c r="U45" s="6">
         <v>0.0</v>
       </c>
       <c r="V45" s="1">
-        <v>0</v>
-      </c>
-      <c r="W45" s="2"/>
-      <c r="X45" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1"/>
       <c r="Y45" s="1">
         <v>0</v>
       </c>
-      <c r="Z45" s="1"/>
-      <c r="AA45">
-        <v>0.0</v>
-      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45"/>
       <c r="AB45">
         <v>0.0</v>
       </c>
-      <c r="AC45" s="2"/>
-      <c r="AD45" t="s">
-        <v>42</v>
+      <c r="AC45">
+        <v>0.0</v>
+      </c>
+      <c r="AE45" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:31">
@@ -8959,33 +9038,35 @@
       <c r="R46" s="1">
         <v>0</v>
       </c>
-      <c r="S46" s="2"/>
-      <c r="T46" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1"/>
       <c r="U46" s="6">
         <v>0.0</v>
       </c>
       <c r="V46" s="1">
-        <v>0</v>
-      </c>
-      <c r="W46" s="2"/>
-      <c r="X46" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1"/>
       <c r="Y46" s="1">
         <v>0</v>
       </c>
-      <c r="Z46" s="1"/>
-      <c r="AA46">
-        <v>0.0</v>
-      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46"/>
       <c r="AB46">
         <v>0.0</v>
       </c>
-      <c r="AC46" s="2"/>
-      <c r="AD46" t="s">
-        <v>42</v>
+      <c r="AC46">
+        <v>0.0</v>
+      </c>
+      <c r="AE46" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="47" spans="1:31">
@@ -9027,33 +9108,35 @@
       <c r="R47" s="1">
         <v>0</v>
       </c>
-      <c r="S47" s="2"/>
-      <c r="T47" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S47" s="1">
+        <v>0</v>
+      </c>
+      <c r="T47" s="1"/>
       <c r="U47" s="6">
         <v>0.0</v>
       </c>
       <c r="V47" s="1">
-        <v>0</v>
-      </c>
-      <c r="W47" s="2"/>
-      <c r="X47" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W47" s="1">
+        <v>0</v>
+      </c>
+      <c r="X47" s="1"/>
       <c r="Y47" s="1">
         <v>0</v>
       </c>
-      <c r="Z47" s="1"/>
-      <c r="AA47">
-        <v>0.0</v>
-      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47"/>
       <c r="AB47">
         <v>0.0</v>
       </c>
-      <c r="AC47" s="2"/>
-      <c r="AD47" t="s">
-        <v>42</v>
+      <c r="AC47">
+        <v>0.0</v>
+      </c>
+      <c r="AE47" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:31">
@@ -9095,33 +9178,35 @@
       <c r="R48" s="1">
         <v>0</v>
       </c>
-      <c r="S48" s="2"/>
-      <c r="T48" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S48" s="1">
+        <v>0</v>
+      </c>
+      <c r="T48" s="1"/>
       <c r="U48" s="6">
         <v>0.0</v>
       </c>
       <c r="V48" s="1">
-        <v>0</v>
-      </c>
-      <c r="W48" s="2"/>
-      <c r="X48" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W48" s="1">
+        <v>0</v>
+      </c>
+      <c r="X48" s="1"/>
       <c r="Y48" s="1">
         <v>0</v>
       </c>
-      <c r="Z48" s="1"/>
-      <c r="AA48">
-        <v>0.0</v>
-      </c>
+      <c r="Z48" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA48"/>
       <c r="AB48">
         <v>0.0</v>
       </c>
-      <c r="AC48" s="2"/>
-      <c r="AD48" t="s">
-        <v>42</v>
+      <c r="AC48">
+        <v>0.0</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="49" spans="1:31">
@@ -9163,33 +9248,35 @@
       <c r="R49" s="1">
         <v>0</v>
       </c>
-      <c r="S49" s="2"/>
-      <c r="T49" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S49" s="1">
+        <v>0</v>
+      </c>
+      <c r="T49" s="1"/>
       <c r="U49" s="6">
         <v>0.0</v>
       </c>
       <c r="V49" s="1">
-        <v>0</v>
-      </c>
-      <c r="W49" s="2"/>
-      <c r="X49" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W49" s="1">
+        <v>0</v>
+      </c>
+      <c r="X49" s="1"/>
       <c r="Y49" s="1">
         <v>0</v>
       </c>
-      <c r="Z49" s="1"/>
-      <c r="AA49">
-        <v>0.0</v>
-      </c>
+      <c r="Z49" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA49"/>
       <c r="AB49">
         <v>0.0</v>
       </c>
-      <c r="AC49" s="2"/>
-      <c r="AD49" t="s">
-        <v>42</v>
+      <c r="AC49">
+        <v>0.0</v>
+      </c>
+      <c r="AE49" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="50" spans="1:31">
@@ -9231,33 +9318,35 @@
       <c r="R50" s="1">
         <v>0</v>
       </c>
-      <c r="S50" s="2"/>
-      <c r="T50" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S50" s="1">
+        <v>0</v>
+      </c>
+      <c r="T50" s="1"/>
       <c r="U50" s="6">
         <v>0.0</v>
       </c>
       <c r="V50" s="1">
-        <v>0</v>
-      </c>
-      <c r="W50" s="2"/>
-      <c r="X50" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W50" s="1">
+        <v>0</v>
+      </c>
+      <c r="X50" s="1"/>
       <c r="Y50" s="1">
         <v>0</v>
       </c>
-      <c r="Z50" s="1"/>
-      <c r="AA50">
-        <v>0.0</v>
-      </c>
+      <c r="Z50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA50"/>
       <c r="AB50">
         <v>0.0</v>
       </c>
-      <c r="AC50" s="2"/>
-      <c r="AD50" t="s">
-        <v>42</v>
+      <c r="AC50">
+        <v>0.0</v>
+      </c>
+      <c r="AE50" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:31">
@@ -9299,33 +9388,35 @@
       <c r="R51" s="1">
         <v>0</v>
       </c>
-      <c r="S51" s="2"/>
-      <c r="T51" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S51" s="1">
+        <v>0</v>
+      </c>
+      <c r="T51" s="1"/>
       <c r="U51" s="6">
         <v>0.0</v>
       </c>
       <c r="V51" s="1">
-        <v>0</v>
-      </c>
-      <c r="W51" s="2"/>
-      <c r="X51" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W51" s="1">
+        <v>0</v>
+      </c>
+      <c r="X51" s="1"/>
       <c r="Y51" s="1">
         <v>0</v>
       </c>
-      <c r="Z51" s="1"/>
-      <c r="AA51">
-        <v>0.0</v>
-      </c>
+      <c r="Z51" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA51"/>
       <c r="AB51">
         <v>0.0</v>
       </c>
-      <c r="AC51" s="2"/>
-      <c r="AD51" t="s">
-        <v>42</v>
+      <c r="AC51">
+        <v>0.0</v>
+      </c>
+      <c r="AE51" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="52" spans="1:31">
@@ -9367,33 +9458,35 @@
       <c r="R52" s="1">
         <v>0</v>
       </c>
-      <c r="S52" s="2"/>
-      <c r="T52" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S52" s="1">
+        <v>0</v>
+      </c>
+      <c r="T52" s="1"/>
       <c r="U52" s="6">
         <v>0.0</v>
       </c>
       <c r="V52" s="1">
-        <v>0</v>
-      </c>
-      <c r="W52" s="2"/>
-      <c r="X52" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W52" s="1">
+        <v>0</v>
+      </c>
+      <c r="X52" s="1"/>
       <c r="Y52" s="1">
         <v>0</v>
       </c>
-      <c r="Z52" s="1"/>
-      <c r="AA52">
-        <v>0.0</v>
-      </c>
+      <c r="Z52" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA52"/>
       <c r="AB52">
         <v>0.0</v>
       </c>
-      <c r="AC52" s="2"/>
-      <c r="AD52" t="s">
-        <v>42</v>
+      <c r="AC52">
+        <v>0.0</v>
+      </c>
+      <c r="AE52" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="53" spans="1:31">
@@ -9435,33 +9528,36 @@
       <c r="R53" s="13">
         <v>0</v>
       </c>
-      <c r="S53" s="14"/>
-      <c r="T53" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S53" s="13">
+        <v>0</v>
+      </c>
+      <c r="T53" s="13"/>
       <c r="U53" s="13">
         <v>0.0</v>
       </c>
       <c r="V53" s="13">
-        <v>0</v>
-      </c>
-      <c r="W53" s="14"/>
-      <c r="X53" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W53" s="13">
+        <v>0</v>
+      </c>
+      <c r="X53" s="13"/>
       <c r="Y53" s="13">
         <v>0</v>
       </c>
-      <c r="Z53" s="13"/>
-      <c r="AA53" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z53" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3"/>
       <c r="AB53" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC53" s="14"/>
-      <c r="AD53" s="3" t="s">
-        <v>42</v>
+      <c r="AC53" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD53" s="3"/>
+      <c r="AE53" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="54" spans="1:31">
@@ -9503,33 +9599,35 @@
       <c r="R54" s="1">
         <v>0</v>
       </c>
-      <c r="S54" s="2"/>
-      <c r="T54" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S54" s="1">
+        <v>0</v>
+      </c>
+      <c r="T54" s="1"/>
       <c r="U54" s="6">
         <v>0.0</v>
       </c>
       <c r="V54" s="1">
-        <v>0</v>
-      </c>
-      <c r="W54" s="2"/>
-      <c r="X54" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W54" s="1">
+        <v>0</v>
+      </c>
+      <c r="X54" s="1"/>
       <c r="Y54" s="1">
         <v>0</v>
       </c>
-      <c r="Z54" s="1"/>
-      <c r="AA54">
-        <v>0.0</v>
-      </c>
+      <c r="Z54" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA54"/>
       <c r="AB54">
         <v>0.0</v>
       </c>
-      <c r="AC54" s="2"/>
-      <c r="AD54" t="s">
-        <v>42</v>
+      <c r="AC54">
+        <v>0.0</v>
+      </c>
+      <c r="AE54" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="55" spans="1:31">
@@ -9571,33 +9669,35 @@
       <c r="R55" s="1">
         <v>0</v>
       </c>
-      <c r="S55" s="2"/>
-      <c r="T55" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S55" s="1">
+        <v>0</v>
+      </c>
+      <c r="T55" s="1"/>
       <c r="U55" s="6">
         <v>0.0</v>
       </c>
       <c r="V55" s="1">
-        <v>0</v>
-      </c>
-      <c r="W55" s="2"/>
-      <c r="X55" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W55" s="1">
+        <v>0</v>
+      </c>
+      <c r="X55" s="1"/>
       <c r="Y55" s="1">
         <v>0</v>
       </c>
-      <c r="Z55" s="1"/>
-      <c r="AA55">
-        <v>0.0</v>
-      </c>
+      <c r="Z55" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA55"/>
       <c r="AB55">
         <v>0.0</v>
       </c>
-      <c r="AC55" s="2"/>
-      <c r="AD55" t="s">
-        <v>42</v>
+      <c r="AC55">
+        <v>0.0</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="56" spans="1:31">
@@ -9639,33 +9739,35 @@
       <c r="R56" s="1">
         <v>0</v>
       </c>
-      <c r="S56" s="2"/>
-      <c r="T56" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S56" s="1">
+        <v>0</v>
+      </c>
+      <c r="T56" s="1"/>
       <c r="U56" s="6">
         <v>0.0</v>
       </c>
       <c r="V56" s="1">
-        <v>0</v>
-      </c>
-      <c r="W56" s="2"/>
-      <c r="X56" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W56" s="1">
+        <v>0</v>
+      </c>
+      <c r="X56" s="1"/>
       <c r="Y56" s="1">
         <v>0</v>
       </c>
-      <c r="Z56" s="1"/>
-      <c r="AA56">
-        <v>0.0</v>
-      </c>
+      <c r="Z56" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA56"/>
       <c r="AB56">
         <v>0.0</v>
       </c>
-      <c r="AC56" s="2"/>
-      <c r="AD56" t="s">
-        <v>42</v>
+      <c r="AC56">
+        <v>0.0</v>
+      </c>
+      <c r="AE56" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="1:31">
@@ -9707,33 +9809,36 @@
       <c r="R57" s="13">
         <v>0</v>
       </c>
-      <c r="S57" s="14"/>
-      <c r="T57" s="13">
-        <v>0.0</v>
-      </c>
+      <c r="S57" s="13">
+        <v>0</v>
+      </c>
+      <c r="T57" s="13"/>
       <c r="U57" s="13">
         <v>0.0</v>
       </c>
       <c r="V57" s="13">
-        <v>0</v>
-      </c>
-      <c r="W57" s="14"/>
-      <c r="X57" s="13">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W57" s="13">
+        <v>0</v>
+      </c>
+      <c r="X57" s="13"/>
       <c r="Y57" s="13">
         <v>0</v>
       </c>
-      <c r="Z57" s="13"/>
-      <c r="AA57" s="3">
-        <v>0.0</v>
-      </c>
+      <c r="Z57" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3"/>
       <c r="AB57" s="3">
         <v>0.0</v>
       </c>
-      <c r="AC57" s="14"/>
-      <c r="AD57" s="3" t="s">
-        <v>42</v>
+      <c r="AC57" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="AD57" s="3"/>
+      <c r="AE57" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:31">
@@ -9775,33 +9880,35 @@
       <c r="R58" s="1">
         <v>0</v>
       </c>
-      <c r="S58" s="2"/>
-      <c r="T58" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S58" s="1">
+        <v>0</v>
+      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="6">
         <v>0.0</v>
       </c>
       <c r="V58" s="1">
-        <v>0</v>
-      </c>
-      <c r="W58" s="2"/>
-      <c r="X58" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W58" s="1">
+        <v>0</v>
+      </c>
+      <c r="X58" s="1"/>
       <c r="Y58" s="1">
         <v>0</v>
       </c>
-      <c r="Z58" s="1"/>
-      <c r="AA58">
-        <v>0.0</v>
-      </c>
+      <c r="Z58" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA58"/>
       <c r="AB58">
         <v>0.0</v>
       </c>
-      <c r="AC58" s="2"/>
-      <c r="AD58" t="s">
-        <v>42</v>
+      <c r="AC58">
+        <v>0.0</v>
+      </c>
+      <c r="AE58" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="1:31">
@@ -9843,33 +9950,35 @@
       <c r="R59" s="1">
         <v>0</v>
       </c>
-      <c r="S59" s="2"/>
-      <c r="T59" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S59" s="1">
+        <v>0</v>
+      </c>
+      <c r="T59" s="1"/>
       <c r="U59" s="6">
         <v>0.0</v>
       </c>
       <c r="V59" s="1">
-        <v>0</v>
-      </c>
-      <c r="W59" s="2"/>
-      <c r="X59" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W59" s="1">
+        <v>0</v>
+      </c>
+      <c r="X59" s="1"/>
       <c r="Y59" s="1">
         <v>0</v>
       </c>
-      <c r="Z59" s="1"/>
-      <c r="AA59">
-        <v>0.0</v>
-      </c>
+      <c r="Z59" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA59"/>
       <c r="AB59">
         <v>0.0</v>
       </c>
-      <c r="AC59" s="2"/>
-      <c r="AD59" t="s">
-        <v>42</v>
+      <c r="AC59">
+        <v>0.0</v>
+      </c>
+      <c r="AE59" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:31">
@@ -9911,33 +10020,35 @@
       <c r="R60" s="1">
         <v>0</v>
       </c>
-      <c r="S60" s="2"/>
-      <c r="T60" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S60" s="1">
+        <v>0</v>
+      </c>
+      <c r="T60" s="1"/>
       <c r="U60" s="6">
         <v>0.0</v>
       </c>
       <c r="V60" s="1">
-        <v>0</v>
-      </c>
-      <c r="W60" s="2"/>
-      <c r="X60" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W60" s="1">
+        <v>0</v>
+      </c>
+      <c r="X60" s="1"/>
       <c r="Y60" s="1">
         <v>0</v>
       </c>
-      <c r="Z60" s="1"/>
-      <c r="AA60">
-        <v>0.0</v>
-      </c>
+      <c r="Z60" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA60"/>
       <c r="AB60">
         <v>0.0</v>
       </c>
-      <c r="AC60" s="2"/>
-      <c r="AD60" t="s">
-        <v>42</v>
+      <c r="AC60">
+        <v>0.0</v>
+      </c>
+      <c r="AE60" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="61" spans="1:31">
@@ -9979,33 +10090,35 @@
       <c r="R61" s="1">
         <v>0</v>
       </c>
-      <c r="S61" s="2"/>
-      <c r="T61" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S61" s="1">
+        <v>0</v>
+      </c>
+      <c r="T61" s="1"/>
       <c r="U61" s="6">
         <v>0.0</v>
       </c>
       <c r="V61" s="1">
-        <v>0</v>
-      </c>
-      <c r="W61" s="2"/>
-      <c r="X61" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W61" s="1">
+        <v>0</v>
+      </c>
+      <c r="X61" s="1"/>
       <c r="Y61" s="1">
         <v>0</v>
       </c>
-      <c r="Z61" s="1"/>
-      <c r="AA61">
-        <v>0.0</v>
-      </c>
+      <c r="Z61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA61"/>
       <c r="AB61">
         <v>0.0</v>
       </c>
-      <c r="AC61" s="2"/>
-      <c r="AD61" t="s">
-        <v>42</v>
+      <c r="AC61">
+        <v>0.0</v>
+      </c>
+      <c r="AE61" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:31">
@@ -10047,33 +10160,35 @@
       <c r="R62" s="1">
         <v>0</v>
       </c>
-      <c r="S62" s="2"/>
-      <c r="T62" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S62" s="1">
+        <v>0</v>
+      </c>
+      <c r="T62" s="1"/>
       <c r="U62" s="6">
         <v>0.0</v>
       </c>
       <c r="V62" s="1">
-        <v>0</v>
-      </c>
-      <c r="W62" s="2"/>
-      <c r="X62" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>0</v>
+      </c>
+      <c r="X62" s="1"/>
       <c r="Y62" s="1">
         <v>0</v>
       </c>
-      <c r="Z62" s="1"/>
-      <c r="AA62">
-        <v>0.0</v>
-      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62"/>
       <c r="AB62">
         <v>0.0</v>
       </c>
-      <c r="AC62" s="2"/>
-      <c r="AD62" t="s">
-        <v>42</v>
+      <c r="AC62">
+        <v>0.0</v>
+      </c>
+      <c r="AE62" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:31">
@@ -10115,33 +10230,35 @@
       <c r="R63" s="1">
         <v>0</v>
       </c>
-      <c r="S63" s="2"/>
-      <c r="T63" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S63" s="1">
+        <v>0</v>
+      </c>
+      <c r="T63" s="1"/>
       <c r="U63" s="6">
         <v>0.0</v>
       </c>
       <c r="V63" s="1">
-        <v>0</v>
-      </c>
-      <c r="W63" s="2"/>
-      <c r="X63" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W63" s="1">
+        <v>0</v>
+      </c>
+      <c r="X63" s="1"/>
       <c r="Y63" s="1">
         <v>0</v>
       </c>
-      <c r="Z63" s="1"/>
-      <c r="AA63">
-        <v>0.0</v>
-      </c>
+      <c r="Z63" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA63"/>
       <c r="AB63">
         <v>0.0</v>
       </c>
-      <c r="AC63" s="2"/>
-      <c r="AD63" t="s">
-        <v>42</v>
+      <c r="AC63">
+        <v>0.0</v>
+      </c>
+      <c r="AE63" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="1:31">
@@ -10183,33 +10300,35 @@
       <c r="R64" s="1">
         <v>0</v>
       </c>
-      <c r="S64" s="2"/>
-      <c r="T64" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S64" s="1">
+        <v>0</v>
+      </c>
+      <c r="T64" s="1"/>
       <c r="U64" s="6">
         <v>0.0</v>
       </c>
       <c r="V64" s="1">
-        <v>0</v>
-      </c>
-      <c r="W64" s="2"/>
-      <c r="X64" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W64" s="1">
+        <v>0</v>
+      </c>
+      <c r="X64" s="1"/>
       <c r="Y64" s="1">
         <v>0</v>
       </c>
-      <c r="Z64" s="1"/>
-      <c r="AA64">
-        <v>0.0</v>
-      </c>
+      <c r="Z64" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA64"/>
       <c r="AB64">
         <v>0.0</v>
       </c>
-      <c r="AC64" s="2"/>
-      <c r="AD64" t="s">
-        <v>42</v>
+      <c r="AC64">
+        <v>0.0</v>
+      </c>
+      <c r="AE64" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="65" spans="1:31">
@@ -10251,33 +10370,35 @@
       <c r="R65" s="1">
         <v>0</v>
       </c>
-      <c r="S65" s="2"/>
-      <c r="T65" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S65" s="1">
+        <v>0</v>
+      </c>
+      <c r="T65" s="1"/>
       <c r="U65" s="6">
         <v>0.0</v>
       </c>
       <c r="V65" s="1">
-        <v>0</v>
-      </c>
-      <c r="W65" s="2"/>
-      <c r="X65" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W65" s="1">
+        <v>0</v>
+      </c>
+      <c r="X65" s="1"/>
       <c r="Y65" s="1">
         <v>0</v>
       </c>
-      <c r="Z65" s="1"/>
-      <c r="AA65">
-        <v>0.0</v>
-      </c>
+      <c r="Z65" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA65"/>
       <c r="AB65">
         <v>0.0</v>
       </c>
-      <c r="AC65" s="2"/>
-      <c r="AD65" t="s">
-        <v>42</v>
+      <c r="AC65">
+        <v>0.0</v>
+      </c>
+      <c r="AE65" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="66" spans="1:31">
@@ -10319,33 +10440,35 @@
       <c r="R66" s="1">
         <v>0</v>
       </c>
-      <c r="S66" s="2"/>
-      <c r="T66" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S66" s="1">
+        <v>0</v>
+      </c>
+      <c r="T66" s="1"/>
       <c r="U66" s="6">
         <v>0.0</v>
       </c>
       <c r="V66" s="1">
-        <v>0</v>
-      </c>
-      <c r="W66" s="2"/>
-      <c r="X66" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W66" s="1">
+        <v>0</v>
+      </c>
+      <c r="X66" s="1"/>
       <c r="Y66" s="1">
         <v>0</v>
       </c>
-      <c r="Z66" s="1"/>
-      <c r="AA66">
-        <v>0.0</v>
-      </c>
+      <c r="Z66" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA66"/>
       <c r="AB66">
         <v>0.0</v>
       </c>
-      <c r="AC66" s="2"/>
-      <c r="AD66" t="s">
-        <v>42</v>
+      <c r="AC66">
+        <v>0.0</v>
+      </c>
+      <c r="AE66" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="1:31">
@@ -10387,33 +10510,35 @@
       <c r="R67" s="1">
         <v>0</v>
       </c>
-      <c r="S67" s="2"/>
-      <c r="T67" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S67" s="1">
+        <v>0</v>
+      </c>
+      <c r="T67" s="1"/>
       <c r="U67" s="6">
         <v>0.0</v>
       </c>
       <c r="V67" s="1">
-        <v>0</v>
-      </c>
-      <c r="W67" s="2"/>
-      <c r="X67" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W67" s="1">
+        <v>0</v>
+      </c>
+      <c r="X67" s="1"/>
       <c r="Y67" s="1">
         <v>0</v>
       </c>
-      <c r="Z67" s="1"/>
-      <c r="AA67">
-        <v>0.0</v>
-      </c>
+      <c r="Z67" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA67"/>
       <c r="AB67">
         <v>0.0</v>
       </c>
-      <c r="AC67" s="2"/>
-      <c r="AD67" t="s">
-        <v>42</v>
+      <c r="AC67">
+        <v>0.0</v>
+      </c>
+      <c r="AE67" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="1:31">
@@ -10455,33 +10580,35 @@
       <c r="R68" s="1">
         <v>0</v>
       </c>
-      <c r="S68" s="2"/>
-      <c r="T68" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S68" s="1">
+        <v>0</v>
+      </c>
+      <c r="T68" s="1"/>
       <c r="U68" s="6">
         <v>0.0</v>
       </c>
       <c r="V68" s="1">
-        <v>0</v>
-      </c>
-      <c r="W68" s="2"/>
-      <c r="X68" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W68" s="1">
+        <v>0</v>
+      </c>
+      <c r="X68" s="1"/>
       <c r="Y68" s="1">
         <v>0</v>
       </c>
-      <c r="Z68" s="1"/>
-      <c r="AA68">
-        <v>0.0</v>
-      </c>
+      <c r="Z68" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA68"/>
       <c r="AB68">
         <v>0.0</v>
       </c>
-      <c r="AC68" s="2"/>
-      <c r="AD68" t="s">
-        <v>42</v>
+      <c r="AC68">
+        <v>0.0</v>
+      </c>
+      <c r="AE68" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="69" spans="1:31">
@@ -10523,33 +10650,35 @@
       <c r="R69" s="1">
         <v>0</v>
       </c>
-      <c r="S69" s="2"/>
-      <c r="T69" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S69" s="1">
+        <v>0</v>
+      </c>
+      <c r="T69" s="1"/>
       <c r="U69" s="6">
         <v>0.0</v>
       </c>
       <c r="V69" s="1">
-        <v>0</v>
-      </c>
-      <c r="W69" s="2"/>
-      <c r="X69" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W69" s="1">
+        <v>0</v>
+      </c>
+      <c r="X69" s="1"/>
       <c r="Y69" s="1">
         <v>0</v>
       </c>
-      <c r="Z69" s="1"/>
-      <c r="AA69">
-        <v>0.0</v>
-      </c>
+      <c r="Z69" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA69"/>
       <c r="AB69">
         <v>0.0</v>
       </c>
-      <c r="AC69" s="2"/>
-      <c r="AD69" t="s">
-        <v>42</v>
+      <c r="AC69">
+        <v>0.0</v>
+      </c>
+      <c r="AE69" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="70" spans="1:31">
@@ -10591,33 +10720,35 @@
       <c r="R70" s="1">
         <v>0</v>
       </c>
-      <c r="S70" s="2"/>
-      <c r="T70" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S70" s="1">
+        <v>0</v>
+      </c>
+      <c r="T70" s="1"/>
       <c r="U70" s="6">
         <v>0.0</v>
       </c>
       <c r="V70" s="1">
-        <v>0</v>
-      </c>
-      <c r="W70" s="2"/>
-      <c r="X70" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W70" s="1">
+        <v>0</v>
+      </c>
+      <c r="X70" s="1"/>
       <c r="Y70" s="1">
         <v>0</v>
       </c>
-      <c r="Z70" s="1"/>
-      <c r="AA70">
-        <v>0.0</v>
-      </c>
+      <c r="Z70" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA70"/>
       <c r="AB70">
         <v>0.0</v>
       </c>
-      <c r="AC70" s="2"/>
-      <c r="AD70" t="s">
-        <v>42</v>
+      <c r="AC70">
+        <v>0.0</v>
+      </c>
+      <c r="AE70" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="1:31">
@@ -10659,33 +10790,35 @@
       <c r="R71" s="1">
         <v>0</v>
       </c>
-      <c r="S71" s="2"/>
-      <c r="T71" s="1">
-        <v>0.0</v>
-      </c>
+      <c r="S71" s="1">
+        <v>0</v>
+      </c>
+      <c r="T71" s="1"/>
       <c r="U71" s="6">
         <v>0.0</v>
       </c>
       <c r="V71" s="1">
-        <v>0</v>
-      </c>
-      <c r="W71" s="2"/>
-      <c r="X71" s="1">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W71" s="1">
+        <v>0</v>
+      </c>
+      <c r="X71" s="1"/>
       <c r="Y71" s="1">
         <v>0</v>
       </c>
-      <c r="Z71" s="1"/>
-      <c r="AA71">
-        <v>0.0</v>
-      </c>
+      <c r="Z71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA71"/>
       <c r="AB71">
         <v>0.0</v>
       </c>
-      <c r="AC71" s="2"/>
-      <c r="AD71" t="s">
-        <v>42</v>
+      <c r="AC71">
+        <v>0.0</v>
+      </c>
+      <c r="AE71" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="72" spans="1:31">
@@ -10727,33 +10860,36 @@
       <c r="R72" s="5">
         <v>0</v>
       </c>
-      <c r="S72" s="16"/>
-      <c r="T72" s="5">
-        <v>0.0</v>
-      </c>
+      <c r="S72" s="5">
+        <v>0</v>
+      </c>
+      <c r="T72" s="5"/>
       <c r="U72" s="5">
         <v>0.0</v>
       </c>
       <c r="V72" s="5">
-        <v>0</v>
-      </c>
-      <c r="W72" s="16"/>
-      <c r="X72" s="5">
-        <v>0</v>
-      </c>
+        <v>0.0</v>
+      </c>
+      <c r="W72" s="5">
+        <v>0</v>
+      </c>
+      <c r="X72" s="5"/>
       <c r="Y72" s="5">
         <v>0</v>
       </c>
-      <c r="Z72" s="5"/>
-      <c r="AA72" s="15">
-        <v>0.0</v>
-      </c>
+      <c r="Z72" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="15"/>
       <c r="AB72" s="15">
         <v>0.0</v>
       </c>
-      <c r="AC72" s="16"/>
-      <c r="AD72" s="15" t="s">
-        <v>42</v>
+      <c r="AC72" s="15">
+        <v>0.0</v>
+      </c>
+      <c r="AD72" s="15"/>
+      <c r="AE72" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="73" spans="1:31">
@@ -10774,15 +10910,14 @@
       <c r="P73" s="1"/>
       <c r="Q73" s="2"/>
       <c r="R73" s="1"/>
-      <c r="S73" s="2"/>
+      <c r="S73" s="1"/>
       <c r="T73" s="1"/>
       <c r="U73" s="1"/>
       <c r="V73" s="1"/>
-      <c r="W73" s="2"/>
+      <c r="W73" s="1"/>
       <c r="X73" s="1"/>
       <c r="Y73" s="1"/>
       <c r="Z73" s="1"/>
-      <c r="AC73" s="2"/>
     </row>
     <row r="74" spans="1:31">
       <c r="B74" s="1"/>
@@ -10802,15 +10937,14 @@
       <c r="P74" s="1"/>
       <c r="Q74" s="2"/>
       <c r="R74" s="1"/>
-      <c r="S74" s="2"/>
+      <c r="S74" s="1"/>
       <c r="T74" s="1"/>
       <c r="U74" s="1"/>
       <c r="V74" s="1"/>
-      <c r="W74" s="2"/>
+      <c r="W74" s="1"/>
       <c r="X74" s="1"/>
       <c r="Y74" s="1"/>
       <c r="Z74" s="1"/>
-      <c r="AC74" s="2"/>
     </row>
     <row r="75" spans="1:31">
       <c r="B75" s="1"/>
@@ -10830,15 +10964,14 @@
       <c r="P75" s="1"/>
       <c r="Q75" s="2"/>
       <c r="R75" s="1"/>
-      <c r="S75" s="2"/>
+      <c r="S75" s="1"/>
       <c r="T75" s="1"/>
       <c r="U75" s="1"/>
       <c r="V75" s="1"/>
-      <c r="W75" s="2"/>
+      <c r="W75" s="1"/>
       <c r="X75" s="1"/>
       <c r="Y75" s="1"/>
       <c r="Z75" s="1"/>
-      <c r="AC75" s="2"/>
     </row>
     <row r="76" spans="1:31">
       <c r="B76" s="1"/>
@@ -10858,15 +10991,14 @@
       <c r="P76" s="1"/>
       <c r="Q76" s="2"/>
       <c r="R76" s="1"/>
-      <c r="S76" s="2"/>
+      <c r="S76" s="1"/>
       <c r="T76" s="1"/>
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
-      <c r="W76" s="2"/>
+      <c r="W76" s="1"/>
       <c r="X76" s="1"/>
       <c r="Y76" s="1"/>
       <c r="Z76" s="1"/>
-      <c r="AC76" s="2"/>
     </row>
     <row r="77" spans="1:31">
       <c r="B77" s="1"/>
@@ -10886,15 +11018,14 @@
       <c r="P77" s="1"/>
       <c r="Q77" s="2"/>
       <c r="R77" s="1"/>
-      <c r="S77" s="2"/>
+      <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
       <c r="V77" s="1"/>
-      <c r="W77" s="2"/>
+      <c r="W77" s="1"/>
       <c r="X77" s="1"/>
       <c r="Y77" s="1"/>
       <c r="Z77" s="1"/>
-      <c r="AC77" s="2"/>
     </row>
     <row r="78" spans="1:31">
       <c r="B78" s="1"/>
@@ -10914,15 +11045,14 @@
       <c r="P78" s="1"/>
       <c r="Q78" s="2"/>
       <c r="R78" s="1"/>
-      <c r="S78" s="2"/>
+      <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="2"/>
+      <c r="W78" s="1"/>
       <c r="X78" s="1"/>
       <c r="Y78" s="1"/>
       <c r="Z78" s="1"/>
-      <c r="AC78" s="2"/>
     </row>
     <row r="79" spans="1:31">
       <c r="B79" s="1"/>
@@ -10942,15 +11072,14 @@
       <c r="P79" s="1"/>
       <c r="Q79" s="2"/>
       <c r="R79" s="1"/>
-      <c r="S79" s="2"/>
+      <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="2"/>
+      <c r="W79" s="1"/>
       <c r="X79" s="1"/>
       <c r="Y79" s="1"/>
       <c r="Z79" s="1"/>
-      <c r="AC79" s="2"/>
     </row>
     <row r="80" spans="1:31">
       <c r="B80" s="1"/>
@@ -10970,15 +11099,14 @@
       <c r="P80" s="1"/>
       <c r="Q80" s="2"/>
       <c r="R80" s="1"/>
-      <c r="S80" s="2"/>
+      <c r="S80" s="1"/>
       <c r="T80" s="1"/>
       <c r="U80" s="1"/>
       <c r="V80" s="1"/>
-      <c r="W80" s="2"/>
+      <c r="W80" s="1"/>
       <c r="X80" s="1"/>
       <c r="Y80" s="1"/>
       <c r="Z80" s="1"/>
-      <c r="AC80" s="2"/>
     </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
